--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="CICD" sheetId="12" r:id="rId8"/>
     <sheet name="交付场景-平台" sheetId="10" r:id="rId9"/>
     <sheet name="对账场景" sheetId="7" r:id="rId10"/>
-    <sheet name="横向运营" sheetId="9" r:id="rId11"/>
+    <sheet name="运营建模" sheetId="9" r:id="rId11"/>
+    <sheet name="运营实施" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -146,8 +147,33 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>通过故意制造非标，验证度量的有效性，防止体系性劣化而不自知</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="459">
   <si>
     <t>使用频次</t>
   </si>
@@ -3214,12 +3240,316 @@
     <t>流控子网</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>规则</t>
+    <rPh sb="0" eb="1">
+      <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>度量</t>
+    <rPh sb="0" eb="1">
+      <t>du'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标+阈值</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白名单</t>
+    <rPh sb="0" eb="1">
+      <t>bai'ming'dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶</t>
+    <rPh sb="0" eb="1">
+      <t>gao'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象规则</t>
+    <rPh sb="0" eb="1">
+      <t>chou'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设平台</t>
+    <rPh sb="0" eb="1">
+      <t>jian'she</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定SOP</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行SOP并记录</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治理</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ops</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <rPh sb="0" eb="1">
+      <t>mo'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据+报表</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓手</t>
+    <rPh sb="0" eb="1">
+      <t>zhua'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录</t>
+    <rPh sb="0" eb="1">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
+    <rPh sb="0" eb="1">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅治理记录(周)</t>
+    <rPh sb="2" eb="3">
+      <t>zhi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅白名单(季)</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'ming'dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>演练</t>
+    <rPh sb="0" eb="1">
+      <t>yan'lian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素</t>
+    <rPh sb="0" eb="1">
+      <t>yao'su</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <rPh sb="0" eb="1">
+      <t>zu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演练验收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(季)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yan'lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题驱动完善规则</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'shan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>演练验证度量之有效</t>
+    <rPh sb="0" eb="1">
+      <t>yan'lian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du'liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅记录确保执行到位</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期&amp;可持续的 保持高质量</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao'chi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gao'zhi'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3465,6 +3795,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -3631,7 +3985,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3809,8 +4163,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3970,6 +4328,18 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4021,10 +4391,8 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="181">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -4114,6 +4482,8 @@
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4202,6 +4572,8 @@
     <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -10489,6 +10861,194 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4914102" cy="1238801"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006600" y="4491182"/>
+          <a:ext cx="4914102" cy="1238801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>教训</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、高阶缺席顶层设计，如抽象规则、制定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、过分重视平台，错把手段当目标</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>思考</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、类似科学实验，演练的哲学基础是可证伪性，演练不通过则系统一定无效</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -10801,7 +11361,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="86" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -10810,7 +11370,7 @@
       <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="83" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -10818,31 +11378,31 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="81"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="78"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="82"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -10851,39 +11411,39 @@
       <c r="D7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="83" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="81"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="82"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
@@ -10898,7 +11458,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="86" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -10907,7 +11467,7 @@
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="83" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -10915,14 +11475,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="82"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="79"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
@@ -11388,19 +11948,19 @@
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
       <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -11419,71 +11979,71 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
@@ -11534,8 +12094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11562,38 +12122,38 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="89" t="s">
         <v>390</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="85" t="s">
+      <c r="I8" s="89"/>
+      <c r="J8" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
       <c r="O8" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="84" t="s">
+      <c r="P8" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
       <c r="W8" s="54" t="s">
         <v>106</v>
       </c>
@@ -11673,7 +12233,7 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="78" t="s">
         <v>379</v>
       </c>
       <c r="E10" t="s">
@@ -11829,7 +12389,7 @@
       <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="78" t="s">
         <v>58</v>
       </c>
       <c r="E15" t="s">
@@ -11882,7 +12442,7 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="78" t="s">
         <v>406</v>
       </c>
       <c r="C17" t="s">
@@ -11941,7 +12501,7 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
@@ -12003,7 +12563,7 @@
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="78" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
@@ -12039,7 +12599,7 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
@@ -12136,7 +12696,7 @@
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="77" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -12168,7 +12728,7 @@
       <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="78" t="s">
         <v>77</v>
       </c>
       <c r="C26" t="s">
@@ -12227,7 +12787,7 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="78" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
@@ -12341,7 +12901,7 @@
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="78" t="s">
         <v>304</v>
       </c>
       <c r="C31" t="s">
@@ -12599,7 +13159,7 @@
       <c r="A40" t="s">
         <v>287</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="78" t="s">
         <v>290</v>
       </c>
       <c r="C40" t="s">
@@ -12639,7 +13199,7 @@
       <c r="A41" t="s">
         <v>287</v>
       </c>
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="78" t="s">
         <v>291</v>
       </c>
       <c r="C41" t="s">
@@ -12679,7 +13239,7 @@
       <c r="A42" t="s">
         <v>287</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="78" t="s">
         <v>292</v>
       </c>
       <c r="C42" t="s">
@@ -12750,7 +13310,7 @@
       <c r="A44" t="s">
         <v>399</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="78" t="s">
         <v>369</v>
       </c>
       <c r="F44" t="s">
@@ -12781,7 +13341,7 @@
       <c r="A45" t="s">
         <v>287</v>
       </c>
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="78" t="s">
         <v>400</v>
       </c>
       <c r="F45" t="s">
@@ -12809,7 +13369,7 @@
       <c r="A46" t="s">
         <v>288</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="78" t="s">
         <v>288</v>
       </c>
       <c r="D46" t="s">
@@ -12915,6 +13475,166 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="62"/>
+      <c r="D12" s="80" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="62"/>
+      <c r="D13" s="80" t="s">
+        <v>440</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="62"/>
+      <c r="D14" s="80" t="s">
+        <v>441</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="62"/>
+      <c r="D15" s="80"/>
+      <c r="H15" s="77" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="62"/>
+      <c r="D16" s="80"/>
+      <c r="H16" s="77" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="80"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81" t="s">
+        <v>455</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="80"/>
+      <c r="H25" s="77"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13136,64 +13856,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="M1" s="86" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="M1" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
       <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
       <c r="U3" s="13" t="s">
         <v>106</v>
       </c>
@@ -15251,7 +15971,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="93" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -15272,7 +15992,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="21" t="s">
         <v>137</v>
       </c>
@@ -15293,7 +16013,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="87"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -15312,7 +16032,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -15329,7 +16049,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -15346,7 +16066,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -15363,7 +16083,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -15378,7 +16098,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -15393,7 +16113,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="93" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -15420,7 +16140,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="4" t="s">
         <v>211</v>
       </c>
@@ -15442,7 +16162,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="4" t="s">
         <v>169</v>
       </c>
@@ -15462,7 +16182,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>173</v>
@@ -15477,7 +16197,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>175</v>
@@ -15490,7 +16210,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>176</v>
@@ -15503,7 +16223,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>177</v>
@@ -15516,7 +16236,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
         <v>178</v>
@@ -15531,7 +16251,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="93" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -15550,7 +16270,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="4" t="s">
         <v>184</v>
       </c>
@@ -15565,7 +16285,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="93" t="s">
         <v>186</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -15590,7 +16310,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="4" t="s">
         <v>193</v>
       </c>
@@ -15609,7 +16329,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -15624,7 +16344,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -15753,7 +16473,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
-      <c r="B5" s="89"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="24"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -15766,7 +16486,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-      <c r="B6" s="89"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="24"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -15802,7 +16522,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="89"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="24"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -15815,7 +16535,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
-      <c r="B9" s="89"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="24"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -15851,7 +16571,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="89"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="24"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -15864,7 +16584,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
-      <c r="B12" s="89"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="24"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -15900,7 +16620,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
-      <c r="B14" s="89"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -15913,7 +16633,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
-      <c r="B15" s="89"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="24"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -15949,7 +16669,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="89"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="24"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -15962,7 +16682,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="89"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="24"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -15998,7 +16718,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="89"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="24"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -16011,7 +16731,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
-      <c r="B21" s="89"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="24"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -16063,11 +16783,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="88" t="s">
+      <c r="E24" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -16194,7 +16914,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
-      <c r="B5" s="89"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="24"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -16207,7 +16927,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
-      <c r="B6" s="89"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="24"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -16243,7 +16963,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="89"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="24"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -16256,7 +16976,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
-      <c r="B9" s="89"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="24"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -16292,7 +17012,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="89"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="24"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -16305,7 +17025,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
-      <c r="B12" s="89"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="24"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -16341,7 +17061,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
-      <c r="B14" s="89"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -16354,7 +17074,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
-      <c r="B15" s="89"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="24"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -16390,7 +17110,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="89"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="24"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -16403,7 +17123,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="89"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="24"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -16439,7 +17159,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="89"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="24"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -16452,7 +17172,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
-      <c r="B21" s="89"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="24"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -16488,7 +17208,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
-      <c r="B23" s="89"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="24"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -16501,7 +17221,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
-      <c r="B24" s="89"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="24"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -16553,11 +17273,11 @@
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
@@ -16941,11 +17661,11 @@
       <c r="A13" s="46"/>
       <c r="B13" s="60"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="63"/>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>

--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -3532,16 +3532,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>长期&amp;可持续的 保持高质量</t>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bao'chi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>gao'zhi'liang</t>
-    </rPh>
+    <t>覆盖SKU要多、结果要好、投入要省(长期持续)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13486,8 +13477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -147,33 +147,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>通过故意制造非标，验证度量的有效性，防止体系性劣化而不自知</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="462">
   <si>
     <t>使用频次</t>
   </si>
@@ -3255,16 +3230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>指标+阈值</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白名单</t>
     <rPh sb="0" eb="1">
       <t>bai'ming'dan</t>
@@ -3279,13 +3244,6 @@
     <t>事件</t>
     <rPh sb="0" eb="1">
       <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高阶</t>
-    <rPh sb="0" eb="1">
-      <t>gao'jie</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3317,10 +3275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dev</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>执行SOP并记录</t>
     <rPh sb="0" eb="1">
       <t>zhi'xing</t>
@@ -3341,14 +3295,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ops</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pmo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模型</t>
     <rPh sb="0" eb="1">
       <t>mo'xing</t>
@@ -3394,56 +3340,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>审阅治理记录(周)</t>
+    <t>目标</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素</t>
+    <rPh sb="0" eb="1">
+      <t>yao'su</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <rPh sb="0" eb="1">
+      <t>zu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题驱动完善规则</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>zhi'li</t>
+      <t>qu'dong</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ji'lu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审阅白名单(季)</t>
-    <rPh sb="0" eb="1">
-      <t>shen'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bai'ming'dan</t>
+      <t>wan'shan</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>ji'du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>演练</t>
-    <rPh sb="0" eb="1">
-      <t>yan'lian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <rPh sb="0" eb="1">
-      <t>mu'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要素</t>
-    <rPh sb="0" eb="1">
-      <t>yao'su</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织</t>
-    <rPh sb="0" eb="1">
-      <t>zu'zhi</t>
+      <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ops</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法</t>
+    <rPh sb="0" eb="1">
+      <t>li'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执法</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法</t>
+    <rPh sb="0" eb="1">
+      <t>si'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲测</t>
+    <rPh sb="0" eb="1">
+      <t>mang'ce</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3456,7 +3425,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>演练验收</t>
+      <t>盲测验收</t>
     </r>
     <r>
       <rPr>
@@ -3470,7 +3439,7 @@
       <t>(季)</t>
     </r>
     <rPh sb="0" eb="1">
-      <t>yan'lian</t>
+      <t>mang'ce</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>ji'du</t>
@@ -3478,61 +3447,120 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>问题驱动完善规则</t>
-    <rPh sb="0" eb="1">
-      <t>wen'ti</t>
+    <t>制定盲测方案</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>qu'dong</t>
+      <t>mang'ce</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>wan'shan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gui'ze</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>演练验证度量之有效</t>
-    <rPh sb="0" eb="1">
-      <t>yan'lian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'zheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>du'liang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>you'xiao'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审阅记录确保执行到位</t>
-    <rPh sb="0" eb="1">
-      <t>shen'yue</t>
-    </rPh>
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅记录(月)</t>
     <rPh sb="2" eb="3">
       <t>ji'lu</t>
     </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营实施: 卓越运营，覆盖SKU要多、质量要好、投入要省(可持续)</t>
+    <rPh sb="0" eb="1">
+      <t>yun'yig</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuo'yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi'liang</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ke</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲测发现平台级劣化</t>
+    <rPh sb="0" eb="1">
+      <t>mang'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'xian</t>
+    </rPh>
     <rPh sb="4" eb="5">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lie'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅确保执行到位</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>que'bao</t>
     </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'xing</t>
+    </rPh>
     <rPh sb="6" eb="7">
-      <t>zhi'xing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
       <t>dao'wei</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>覆盖SKU要多、结果要好、投入要省(长期持续)</t>
+    <t>指标</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+阈值</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'zhi</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3540,7 +3568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3809,6 +3837,13 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="18">
@@ -10856,12 +10891,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20782</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>195407</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4914102" cy="1238801"/>
+    <xdr:ext cx="5552674" cy="1812035"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
@@ -10869,8 +10904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="4491182"/>
-          <a:ext cx="4914102" cy="1238801"/>
+          <a:off x="947511" y="3588121"/>
+          <a:ext cx="5552674" cy="1812035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10899,7 +10934,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>教训</a:t>
+            <a:t>卓越运营 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 教训</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -10927,12 +10970,9 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、高阶缺席顶层设计，如抽象规则、制定</a:t>
+            <a:t>、是否定义出了明确的指标，是标准化的根本标志，也是转运营的前提</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SOP</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -10958,7 +10998,71 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、高阶缺席顶层设计，如抽象规则、制定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、制定盲测方案。要求高阶打样</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>、过分重视平台，错把手段当目标</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、盲测时故意制造非标，验证度是否有效、治理是否及时，防止体系性劣化而不自知</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -11030,7 +11134,35 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、类似科学实验，演练的哲学基础是可证伪性，演练不通过则系统一定无效</a:t>
+            <a:t>、类似科学实验，盲测的哲学基础是可证伪性，盲测不通过则系统一定无效</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、三权分立、监督制衡，不能绝对信任某一角色</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12085,7 +12217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:W49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -13474,34 +13606,36 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="79" t="s">
@@ -13511,125 +13645,131 @@
         <v>428</v>
       </c>
       <c r="G6" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="D11" s="80" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E8" t="s">
-        <v>429</v>
-      </c>
-      <c r="F8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G8" t="s">
-        <v>431</v>
-      </c>
-      <c r="H8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>430</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E11" t="s">
         <v>432</v>
       </c>
-      <c r="G9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D11" s="80" t="s">
+      <c r="F11" t="s">
         <v>433</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>434</v>
       </c>
-      <c r="G11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="C12" s="62"/>
       <c r="D12" s="80" t="s">
-        <v>437</v>
-      </c>
-      <c r="F12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G12" s="77" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="C13" s="62"/>
       <c r="D13" s="80" t="s">
-        <v>440</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="I13" s="77"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="62"/>
-      <c r="D14" s="80" t="s">
-        <v>441</v>
-      </c>
+      <c r="D14" s="80"/>
       <c r="H14" s="77" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="I14" s="77"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="62"/>
       <c r="D15" s="80"/>
-      <c r="H15" s="77" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="62"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="D16" s="80"/>
-      <c r="H16" s="77" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D17" s="80"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81" t="s">
-        <v>455</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D25" s="80"/>
-      <c r="H25" s="77"/>
+      <c r="E16" s="81" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20" s="80"/>
+      <c r="H20" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/blog/niean.github.io/images/20220127/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1DC230-E3DC-EF4E-AF23-D0F4171B5EAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -19,13 +20,14 @@
     <sheet name="应用生命周期-废弃" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="交付场景-old" sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="交付场景" sheetId="6" r:id="rId7"/>
-    <sheet name="CICD" sheetId="12" r:id="rId8"/>
-    <sheet name="交付场景-平台" sheetId="10" r:id="rId9"/>
+    <sheet name="交付场景-平台" sheetId="10" r:id="rId8"/>
+    <sheet name="CICD" sheetId="12" r:id="rId9"/>
     <sheet name="对账场景" sheetId="7" r:id="rId10"/>
     <sheet name="运营建模" sheetId="9" r:id="rId11"/>
     <sheet name="运营实施" sheetId="13" r:id="rId12"/>
+    <sheet name="平台工程" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="R6" authorId="0">
+    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,12 +65,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="475">
   <si>
     <t>使用频次</t>
   </si>
@@ -3563,12 +3565,88 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>视角\维度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：不同角色 如何看待平台工程?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固化知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助提效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术解绑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">体验割裂
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门槛提高</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分工解耦
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任延伸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3845,6 +3923,21 @@
       <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -3950,7 +4043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4008,6 +4101,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4194,7 +4296,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4417,6 +4519,14 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="181">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4607,6 +4717,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4628,7 +4741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4671,7 +4790,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直线箭头连接符 1"/>
+        <xdr:cNvPr id="2" name="直线箭头连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4725,7 +4850,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直线箭头连接符 2"/>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4779,7 +4910,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直线箭头连接符 3"/>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4833,7 +4970,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直线箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4887,7 +5030,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4941,7 +5090,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直线箭头连接符 6"/>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4990,7 +5145,13 @@
     <xdr:ext cx="415498" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5047,7 +5208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="弧 8"/>
+        <xdr:cNvPr id="9" name="弧 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5104,7 +5271,13 @@
     <xdr:ext cx="415498" cy="404854"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5168,7 +5341,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直线箭头连接符 10"/>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5213,7 +5392,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5274,7 +5459,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5324,7 +5515,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5369,7 +5566,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5425,7 +5628,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5486,7 +5695,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直线箭头连接符 16"/>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5531,7 +5746,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5592,7 +5813,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直线箭头连接符 18"/>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5637,7 +5864,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5698,7 +5931,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直线箭头连接符 20"/>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5743,7 +5982,13 @@
     <xdr:ext cx="812145" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="文本框 21"/>
+        <xdr:cNvPr id="22" name="文本框 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5799,7 +6044,13 @@
     <xdr:ext cx="415498" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvPr id="23" name="文本框 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5857,7 +6108,13 @@
     <xdr:ext cx="486223" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5927,7 +6184,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直线箭头连接符 24"/>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5972,7 +6235,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6028,7 +6297,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvPr id="27" name="文本框 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6105,7 +6380,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6182,7 +6463,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6259,7 +6546,13 @@
     <xdr:ext cx="492443" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvPr id="30" name="文本框 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6317,7 +6610,13 @@
     <xdr:ext cx="492443" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6375,7 +6674,13 @@
     <xdr:ext cx="492443" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="文本框 31"/>
+        <xdr:cNvPr id="32" name="文本框 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6438,7 +6743,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直线箭头连接符 32"/>
+        <xdr:cNvPr id="33" name="直线箭头连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6493,7 +6804,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直线箭头连接符 2"/>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6547,7 +6864,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直线箭头连接符 11"/>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6601,7 +6924,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6655,7 +6984,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直线箭头连接符 14"/>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6709,7 +7044,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直线箭头连接符 15"/>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6758,7 +7099,13 @@
     <xdr:ext cx="415498" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6815,7 +7162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="弧 56"/>
+        <xdr:cNvPr id="57" name="弧 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6872,7 +7225,13 @@
     <xdr:ext cx="415498" cy="404854"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="文本框 57"/>
+        <xdr:cNvPr id="58" name="文本框 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6936,7 +7295,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直线箭头连接符 59"/>
+        <xdr:cNvPr id="60" name="直线箭头连接符 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6981,7 +7346,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="文本框 60"/>
+        <xdr:cNvPr id="61" name="文本框 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7042,7 +7413,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直线箭头连接符 61"/>
+        <xdr:cNvPr id="62" name="直线箭头连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7092,7 +7469,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直线箭头连接符 62"/>
+        <xdr:cNvPr id="63" name="直线箭头连接符 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7137,7 +7520,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="文本框 63"/>
+        <xdr:cNvPr id="64" name="文本框 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7193,7 +7582,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="文本框 64"/>
+        <xdr:cNvPr id="65" name="文本框 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7254,7 +7649,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直线箭头连接符 65"/>
+        <xdr:cNvPr id="66" name="直线箭头连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7299,7 +7700,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="文本框 66"/>
+        <xdr:cNvPr id="67" name="文本框 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7360,7 +7767,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直线箭头连接符 67"/>
+        <xdr:cNvPr id="68" name="直线箭头连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7405,7 +7818,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="文本框 68"/>
+        <xdr:cNvPr id="69" name="文本框 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7466,7 +7885,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直线箭头连接符 69"/>
+        <xdr:cNvPr id="70" name="直线箭头连接符 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7511,7 +7936,13 @@
     <xdr:ext cx="812145" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="文本框 70"/>
+        <xdr:cNvPr id="71" name="文本框 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7567,7 +7998,13 @@
     <xdr:ext cx="415498" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="文本框 71"/>
+        <xdr:cNvPr id="72" name="文本框 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7625,7 +8062,13 @@
     <xdr:ext cx="486223" cy="196592"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7695,7 +8138,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直线箭头连接符 28"/>
+        <xdr:cNvPr id="29" name="直线箭头连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7740,7 +8189,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7817,7 +8272,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="文本框 31"/>
+        <xdr:cNvPr id="32" name="文本框 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7894,7 +8355,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="文本框 32"/>
+        <xdr:cNvPr id="33" name="文本框 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7971,7 +8438,13 @@
     <xdr:ext cx="492443" cy="300852"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="文本框 34"/>
+        <xdr:cNvPr id="35" name="文本框 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8053,7 +8526,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直线箭头连接符 42"/>
+        <xdr:cNvPr id="43" name="直线箭头连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8107,7 +8586,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直线箭头连接符 43"/>
+        <xdr:cNvPr id="44" name="直线箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8161,7 +8646,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直线箭头连接符 44"/>
+        <xdr:cNvPr id="45" name="直线箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8206,7 +8697,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="文本框 45"/>
+        <xdr:cNvPr id="46" name="文本框 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8267,7 +8764,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直线箭头连接符 46"/>
+        <xdr:cNvPr id="47" name="直线箭头连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8309,6 +8812,473 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97762</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>627639</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直线箭头连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2320262" y="1723571"/>
+          <a:ext cx="529877" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163605</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693482</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4037105" y="1724212"/>
+          <a:ext cx="529877" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>731583</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5726206" y="1713753"/>
+          <a:ext cx="529877" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88902</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="611321" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2254625" y="1511302"/>
+          <a:ext cx="611321" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>编排审批</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149413</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="606705" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5673913" y="1503082"/>
+          <a:ext cx="606705" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>结果检查</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195622</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131591</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="196592"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5720122" y="1757191"/>
+          <a:ext cx="492443" cy="196592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则引擎</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263072</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331822" cy="231282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962072" y="1224643"/>
+          <a:ext cx="331822" cy="231282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IaC</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>576385</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -8322,7 +9292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直线箭头连接符 1"/>
+        <xdr:cNvPr id="2" name="直线箭头连接符 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8369,7 +9345,13 @@
     <xdr:ext cx="6933052" cy="439864"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8669,7 +9651,13 @@
     <xdr:ext cx="185616" cy="185614"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8723,431 +9711,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>97762</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>627639</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直线箭头连接符 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2320262" y="1723571"/>
-          <a:ext cx="529877" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd w="med" len="med"/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>163605</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>693482</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直线箭头连接符 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4037105" y="1724212"/>
-          <a:ext cx="529877" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd w="med" len="med"/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88153</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>731583</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88153</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5726206" y="1713753"/>
-          <a:ext cx="529877" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd w="med" len="med"/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>32125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88902</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="611321" cy="196592"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="文本框 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2254625" y="1511302"/>
-          <a:ext cx="611321" cy="196592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>编排审批</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>149413</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="606705" cy="196592"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="文本框 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5673913" y="1503082"/>
-          <a:ext cx="606705" cy="196592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="600" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>结果检查</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>195622</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>131591</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="492443" cy="196592"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="文本框 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5720122" y="1757191"/>
-          <a:ext cx="492443" cy="196592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>规则引擎</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600" b="0">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>263072</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="331822" cy="231282"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="文本框 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4962072" y="1224643"/>
-          <a:ext cx="331822" cy="231282"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IaC</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9165,7 +9728,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直线箭头连接符 21"/>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9208,7 +9777,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直线箭头连接符 22"/>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9251,7 +9826,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直线箭头连接符 23"/>
+        <xdr:cNvPr id="24" name="直线箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9294,7 +9875,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直线箭头连接符 24"/>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9332,7 +9919,13 @@
     <xdr:ext cx="530915" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9404,7 +9997,13 @@
     <xdr:ext cx="356060" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvPr id="27" name="文本框 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9490,7 +10089,13 @@
     <xdr:ext cx="415498" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9562,7 +10167,13 @@
     <xdr:ext cx="415498" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9639,7 +10250,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直线箭头连接符 29"/>
+        <xdr:cNvPr id="30" name="直线箭头连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9677,7 +10294,13 @@
     <xdr:ext cx="415498" cy="248594"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9754,7 +10377,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直线箭头连接符 31"/>
+        <xdr:cNvPr id="32" name="直线箭头连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9789,7 +10418,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="文本框 32"/>
+        <xdr:cNvPr id="33" name="文本框 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9866,7 +10501,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直线箭头连接符 33"/>
+        <xdr:cNvPr id="34" name="直线箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9901,7 +10542,13 @@
     <xdr:ext cx="344518" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="文本框 34"/>
+        <xdr:cNvPr id="35" name="文本框 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9987,7 +10634,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="文本框 36"/>
+        <xdr:cNvPr id="37" name="文本框 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10066,7 +10719,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直线箭头连接符 37"/>
+        <xdr:cNvPr id="38" name="直线箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10101,7 +10760,13 @@
     <xdr:ext cx="697627" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="文本框 38"/>
+        <xdr:cNvPr id="39" name="文本框 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10178,7 +10843,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直线箭头连接符 39"/>
+        <xdr:cNvPr id="40" name="直线箭头连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10213,7 +10884,13 @@
     <xdr:ext cx="617220" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="文本框 40"/>
+        <xdr:cNvPr id="41" name="文本框 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10290,7 +10967,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直线箭头连接符 45"/>
+        <xdr:cNvPr id="46" name="直线箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10325,7 +11008,13 @@
     <xdr:ext cx="481670" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="文本框 46"/>
+        <xdr:cNvPr id="47" name="文本框 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10419,7 +11108,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直线箭头连接符 48"/>
+        <xdr:cNvPr id="49" name="直线箭头连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10456,7 +11151,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="文本框 49"/>
+        <xdr:cNvPr id="50" name="文本框 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10535,7 +11236,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直线箭头连接符 52"/>
+        <xdr:cNvPr id="53" name="直线箭头连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10572,7 +11279,13 @@
     <xdr:ext cx="595035" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="文本框 53"/>
+        <xdr:cNvPr id="54" name="文本框 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10651,7 +11364,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直线箭头连接符 54"/>
+        <xdr:cNvPr id="55" name="直线箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10688,7 +11407,13 @@
     <xdr:ext cx="492443" cy="231282"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="文本框 55"/>
+        <xdr:cNvPr id="56" name="文本框 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10767,7 +11492,13 @@
     <xdr:ext cx="10096500" cy="1384300"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10899,7 +11630,13 @@
     <xdr:ext cx="5552674" cy="1812035"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11434,14 +12171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -11451,7 +12188,7 @@
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8">
       <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
@@ -11468,7 +12205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="17">
       <c r="B3" s="14" t="s">
         <v>42</v>
       </c>
@@ -11483,7 +12220,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="17">
       <c r="B4" s="86" t="s">
         <v>35</v>
       </c>
@@ -11500,7 +12237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="17">
       <c r="B5" s="87"/>
       <c r="C5" s="7" t="s">
         <v>34</v>
@@ -11511,7 +12248,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="17">
       <c r="B6" s="88"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
@@ -11524,7 +12261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="17">
       <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
@@ -11539,7 +12276,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="17">
       <c r="B8" s="87"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
@@ -11552,7 +12289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="17">
       <c r="B9" s="87"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
@@ -11565,7 +12302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="17">
       <c r="B10" s="88"/>
       <c r="C10" s="16" t="s">
         <v>44</v>
@@ -11580,7 +12317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="17">
       <c r="B11" s="86" t="s">
         <v>39</v>
       </c>
@@ -11597,7 +12334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="17">
       <c r="B12" s="88"/>
       <c r="C12" s="7" t="s">
         <v>41</v>
@@ -11610,28 +12347,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>122</v>
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>48</v>
       </c>
@@ -11648,7 +12385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -11665,7 +12402,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>78</v>
       </c>
@@ -11682,7 +12419,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -11699,7 +12436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>92</v>
       </c>
@@ -11716,7 +12453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6">
       <c r="C28" t="s">
         <v>41</v>
       </c>
@@ -11745,20 +12482,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11772,7 +12509,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="32"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="31"/>
       <c r="B2" s="33"/>
       <c r="C2" s="31"/>
@@ -11794,7 +12531,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
         <v>228</v>
@@ -11810,7 +12547,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="34"/>
       <c r="B4" s="33"/>
       <c r="C4" s="36"/>
@@ -11824,7 +12561,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="34"/>
       <c r="B5" s="33"/>
       <c r="C5" s="36"/>
@@ -11838,7 +12575,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="34" t="s">
         <v>229</v>
       </c>
@@ -11864,7 +12601,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="34"/>
       <c r="B7" s="33"/>
       <c r="C7" s="36"/>
@@ -11878,7 +12615,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="34"/>
       <c r="B8" s="33"/>
       <c r="C8" s="36"/>
@@ -11892,7 +12629,7 @@
       <c r="K8" s="31"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="34" t="s">
         <v>233</v>
       </c>
@@ -11918,7 +12655,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="34"/>
       <c r="B10" s="33"/>
       <c r="C10" s="36"/>
@@ -11932,7 +12669,7 @@
       <c r="K10" s="31"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="34"/>
       <c r="B11" s="33"/>
       <c r="C11" s="36"/>
@@ -11946,7 +12683,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="34" t="s">
         <v>235</v>
       </c>
@@ -11972,7 +12709,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="34"/>
       <c r="B13" s="33"/>
       <c r="C13" s="36"/>
@@ -11986,7 +12723,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="34"/>
       <c r="B14" s="33"/>
       <c r="C14" s="36"/>
@@ -12000,7 +12737,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="34" t="s">
         <v>237</v>
       </c>
@@ -12026,7 +12763,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="34"/>
       <c r="B16" s="33"/>
       <c r="C16" s="36"/>
@@ -12040,7 +12777,7 @@
       <c r="K16" s="31"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="34"/>
       <c r="B17" s="33"/>
       <c r="C17" s="36"/>
@@ -12054,7 +12791,7 @@
       <c r="K17" s="31"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="34"/>
       <c r="B18" s="35" t="s">
         <v>239</v>
@@ -12070,7 +12807,7 @@
       <c r="K18" s="31"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="96" t="s">
         <v>240</v>
       </c>
@@ -12086,7 +12823,7 @@
       <c r="K19" s="96"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -12100,7 +12837,7 @@
       <c r="K20" s="44"/>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="45"/>
       <c r="B21" s="97" t="s">
         <v>277</v>
@@ -12116,7 +12853,7 @@
       <c r="K21" s="98"/>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="46"/>
       <c r="B22" s="98"/>
       <c r="C22" s="98"/>
@@ -12129,7 +12866,7 @@
       <c r="J22" s="98"/>
       <c r="K22" s="98"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="46"/>
       <c r="B23" s="98"/>
       <c r="C23" s="98"/>
@@ -12142,7 +12879,7 @@
       <c r="J23" s="98"/>
       <c r="K23" s="98"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="46"/>
       <c r="B24" s="98"/>
       <c r="C24" s="98"/>
@@ -12155,7 +12892,7 @@
       <c r="J24" s="98"/>
       <c r="K24" s="98"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="46"/>
       <c r="B25" s="98"/>
       <c r="C25" s="98"/>
@@ -12168,7 +12905,7 @@
       <c r="J25" s="98"/>
       <c r="K25" s="98"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -12181,7 +12918,7 @@
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="41" t="s">
         <v>241</v>
       </c>
@@ -12196,7 +12933,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="42"/>
       <c r="B29" s="40" t="s">
         <v>276</v>
@@ -12214,14 +12951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A8:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -12242,7 +12979,7 @@
     <col min="23" max="23" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="89" t="s">
@@ -12281,7 +13018,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -12352,7 +13089,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="34">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12390,7 +13127,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12412,7 +13149,7 @@
       <c r="V11" s="57"/>
       <c r="W11" s="57"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12449,7 +13186,7 @@
       <c r="V12" s="57"/>
       <c r="W12" s="57"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12480,7 +13217,7 @@
       <c r="V13" s="57"/>
       <c r="W13" s="57"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -12508,7 +13245,7 @@
       <c r="V14" s="57"/>
       <c r="W14" s="57"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -12539,7 +13276,7 @@
       <c r="V15" s="57"/>
       <c r="W15" s="57"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -12561,7 +13298,7 @@
       <c r="V16" s="57"/>
       <c r="W16" s="57"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -12592,7 +13329,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="57"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -12620,7 +13357,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -12654,7 +13391,7 @@
       <c r="V19" s="57"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -12682,7 +13419,7 @@
       <c r="V20" s="57"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -12718,7 +13455,7 @@
       <c r="V21" s="57"/>
       <c r="W21" s="57"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -12757,7 +13494,7 @@
       <c r="V22" s="57"/>
       <c r="W22" s="57"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -12786,7 +13523,7 @@
       <c r="V23" s="57"/>
       <c r="W23" s="57"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -12815,7 +13552,7 @@
       <c r="V24" s="57"/>
       <c r="W24" s="57"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -12847,7 +13584,7 @@
       <c r="V25" s="57"/>
       <c r="W25" s="57"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -12878,7 +13615,7 @@
       <c r="V26" s="57"/>
       <c r="W26" s="57"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -12906,7 +13643,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="57"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -12946,7 +13683,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="57"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -12982,7 +13719,7 @@
       <c r="V29" s="57"/>
       <c r="W29" s="57"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -13020,7 +13757,7 @@
       <c r="V30" s="57"/>
       <c r="W30" s="57"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -13060,7 +13797,7 @@
       <c r="V31" s="57"/>
       <c r="W31" s="57"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -13082,7 +13819,7 @@
       <c r="V32" s="57"/>
       <c r="W32" s="57"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -13116,7 +13853,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="57"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>286</v>
       </c>
@@ -13147,7 +13884,7 @@
       <c r="V34" s="57"/>
       <c r="W34" s="57"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>286</v>
       </c>
@@ -13181,7 +13918,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="57"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>286</v>
       </c>
@@ -13203,7 +13940,7 @@
       <c r="V36" s="57"/>
       <c r="W36" s="57"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>286</v>
       </c>
@@ -13225,7 +13962,7 @@
       <c r="V37" s="57"/>
       <c r="W37" s="57"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>286</v>
       </c>
@@ -13256,7 +13993,7 @@
       <c r="V38" s="57"/>
       <c r="W38" s="57"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>286</v>
       </c>
@@ -13278,7 +14015,7 @@
       <c r="V39" s="57"/>
       <c r="W39" s="57"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>287</v>
       </c>
@@ -13318,7 +14055,7 @@
       <c r="V40" s="57"/>
       <c r="W40" s="57"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>287</v>
       </c>
@@ -13358,7 +14095,7 @@
       <c r="V41" s="57"/>
       <c r="W41" s="57"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>287</v>
       </c>
@@ -13395,7 +14132,7 @@
       <c r="V42" s="57"/>
       <c r="W42" s="57"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>287</v>
       </c>
@@ -13429,7 +14166,7 @@
       <c r="V43" s="57"/>
       <c r="W43" s="57"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>399</v>
       </c>
@@ -13460,7 +14197,7 @@
       <c r="V44" s="57"/>
       <c r="W44" s="57"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>287</v>
       </c>
@@ -13488,7 +14225,7 @@
       <c r="V45" s="57"/>
       <c r="W45" s="57"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -13521,7 +14258,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>308</v>
       </c>
@@ -13547,7 +14284,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="51">
       <c r="A48" t="s">
         <v>294</v>
       </c>
@@ -13575,7 +14312,7 @@
       </c>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -13606,14 +14343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A4:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -13625,7 +14362,7 @@
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="C4" s="3" t="s">
         <v>443</v>
       </c>
@@ -13633,7 +14370,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="C6" s="3" t="s">
         <v>437</v>
       </c>
@@ -13651,7 +14388,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="C8" s="3" t="s">
         <v>444</v>
       </c>
@@ -13668,7 +14405,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>429</v>
       </c>
@@ -13682,12 +14419,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>450</v>
       </c>
@@ -13710,7 +14447,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>451</v>
       </c>
@@ -13722,7 +14459,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>452</v>
       </c>
@@ -13735,7 +14472,7 @@
       </c>
       <c r="I13" s="77"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="C14" s="62"/>
       <c r="D14" s="80"/>
       <c r="H14" s="77" t="s">
@@ -13743,11 +14480,11 @@
       </c>
       <c r="I14" s="77"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="C15" s="62"/>
       <c r="D15" s="80"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17">
       <c r="C16" s="3" t="s">
         <v>445</v>
       </c>
@@ -13762,7 +14499,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:8">
       <c r="D20" s="80"/>
       <c r="H20" s="77"/>
     </row>
@@ -13773,15 +14510,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D859FE5C-8E3B-9047-AAFE-2C8AF7AA666B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="101"/>
+      <c r="B4" s="100" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>464</v>
+      </c>
+      <c r="E4" s="101"/>
+    </row>
+    <row r="5" spans="1:5" ht="34">
+      <c r="A5" s="101"/>
+      <c r="B5" s="102" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="101"/>
+    </row>
+    <row r="6" spans="1:5" ht="34">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" s="101"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="101"/>
+      <c r="B7" s="102" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="101"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="105"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13790,16 +14639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:F20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>275</v>
       </c>
@@ -13813,7 +14662,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="53" t="s">
         <v>271</v>
       </c>
@@ -13830,7 +14679,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -13839,7 +14688,7 @@
       </c>
       <c r="F6" s="52"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="51" t="s">
         <v>66</v>
       </c>
@@ -13856,7 +14705,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
         <v>264</v>
@@ -13871,7 +14720,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
       <c r="D10" s="50" t="s">
@@ -13882,7 +14731,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
       <c r="D11" s="50" t="s">
@@ -13891,7 +14740,7 @@
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="49" t="s">
         <v>257</v>
       </c>
@@ -13908,7 +14757,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
@@ -13917,7 +14766,7 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="47" t="s">
         <v>251</v>
       </c>
@@ -13934,7 +14783,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="47"/>
       <c r="C17" s="47" t="s">
         <v>246</v>
@@ -13949,7 +14798,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>242</v>
       </c>
@@ -13961,14 +14810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -13986,7 +14835,7 @@
     <col min="24" max="24" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="C1" s="92" t="s">
         <v>110</v>
       </c>
@@ -14010,7 +14859,7 @@
       <c r="T1" s="92"/>
       <c r="U1" s="92"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="91" t="s">
@@ -14051,7 +14900,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -14120,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -14188,7 +15037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -14253,7 +15102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -14318,7 +15167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -14383,7 +15232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -14451,7 +15300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -14516,7 +15365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -14581,7 +15430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -14647,7 +15496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -14712,7 +15561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -14777,7 +15626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -14842,7 +15691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -14908,7 +15757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -14974,7 +15823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -15040,7 +15889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -15106,7 +15955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -15172,7 +16021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -15237,7 +16086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -15302,7 +16151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -15368,7 +16217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -15434,7 +16283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -15500,7 +16349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -15566,7 +16415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -15632,7 +16481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -15698,7 +16547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -15763,7 +16612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -15831,7 +16680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -15899,7 +16748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -15967,7 +16816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -16052,14 +16901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -16072,7 +16921,7 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
         <v>128</v>
       </c>
@@ -16101,7 +16950,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="93" t="s">
         <v>133</v>
       </c>
@@ -16122,7 +16971,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="93"/>
       <c r="B3" s="21" t="s">
         <v>137</v>
@@ -16143,7 +16992,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="93"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -16162,7 +17011,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="93"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -16179,7 +17028,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="93"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -16196,7 +17045,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="93"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -16213,7 +17062,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="93"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -16228,7 +17077,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="93"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -16243,7 +17092,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="93" t="s">
         <v>158</v>
       </c>
@@ -16270,7 +17119,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="93"/>
       <c r="B11" s="4" t="s">
         <v>211</v>
@@ -16292,7 +17141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="93"/>
       <c r="B12" s="4" t="s">
         <v>169</v>
@@ -16312,7 +17161,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="93"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -16327,7 +17176,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="93"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -16340,7 +17189,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="93"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -16353,7 +17202,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="93"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -16366,7 +17215,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="93"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
@@ -16381,7 +17230,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="93" t="s">
         <v>180</v>
       </c>
@@ -16400,7 +17249,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="93"/>
       <c r="B19" s="4" t="s">
         <v>184</v>
@@ -16415,7 +17264,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="93" t="s">
         <v>186</v>
       </c>
@@ -16440,7 +17289,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="93"/>
       <c r="B21" s="4" t="s">
         <v>193</v>
@@ -16459,7 +17308,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="93"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -16474,7 +17323,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="93"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -16487,17 +17336,17 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>219</v>
       </c>
@@ -16516,14 +17365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
@@ -16533,7 +17382,7 @@
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -16546,7 +17395,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="28" t="s">
@@ -16566,7 +17415,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -16579,7 +17428,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="24"/>
       <c r="B4" s="29" t="s">
         <v>200</v>
@@ -16602,7 +17451,7 @@
       </c>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="24"/>
       <c r="B5" s="95"/>
       <c r="C5" s="24"/>
@@ -16615,7 +17464,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="24"/>
       <c r="B6" s="95"/>
       <c r="C6" s="24"/>
@@ -16628,7 +17477,7 @@
       <c r="J6" s="26"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="24"/>
       <c r="B7" s="29" t="s">
         <v>201</v>
@@ -16651,7 +17500,7 @@
       </c>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="24"/>
       <c r="B8" s="95"/>
       <c r="C8" s="24"/>
@@ -16664,7 +17513,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="B9" s="95"/>
       <c r="C9" s="24"/>
@@ -16677,7 +17526,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="B10" s="29" t="s">
         <v>342</v>
@@ -16700,7 +17549,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="24"/>
       <c r="B11" s="95"/>
       <c r="C11" s="24"/>
@@ -16713,7 +17562,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="24"/>
       <c r="B12" s="95"/>
       <c r="C12" s="24"/>
@@ -16726,7 +17575,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="24"/>
       <c r="B13" s="29" t="s">
         <v>323</v>
@@ -16749,7 +17598,7 @@
       </c>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="24"/>
       <c r="B14" s="95"/>
       <c r="C14" s="24"/>
@@ -16762,7 +17611,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="24"/>
       <c r="B15" s="95"/>
       <c r="C15" s="24"/>
@@ -16775,7 +17624,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="24"/>
       <c r="B16" s="29" t="s">
         <v>322</v>
@@ -16798,7 +17647,7 @@
       </c>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="24"/>
       <c r="B17" s="95"/>
       <c r="C17" s="24"/>
@@ -16811,7 +17660,7 @@
       <c r="J17" s="26"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="24"/>
       <c r="B18" s="95"/>
       <c r="C18" s="24"/>
@@ -16824,7 +17673,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="24"/>
       <c r="B19" s="29" t="s">
         <v>336</v>
@@ -16847,7 +17696,7 @@
       </c>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="24"/>
       <c r="B20" s="95"/>
       <c r="C20" s="24"/>
@@ -16860,7 +17709,7 @@
       <c r="J20" s="26"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="24"/>
       <c r="B21" s="95"/>
       <c r="C21" s="24"/>
@@ -16873,7 +17722,7 @@
       <c r="J21" s="26"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="24"/>
       <c r="B22" s="29" t="s">
         <v>203</v>
@@ -16896,7 +17745,7 @@
       </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -16909,7 +17758,7 @@
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -16924,7 +17773,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -16937,7 +17786,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="H27" s="1"/>
     </row>
   </sheetData>
@@ -16957,14 +17806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
@@ -16974,7 +17823,7 @@
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -16987,7 +17836,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="28" t="s">
@@ -17007,7 +17856,7 @@
       </c>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -17020,7 +17869,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="24"/>
       <c r="B4" s="29" t="s">
         <v>200</v>
@@ -17043,7 +17892,7 @@
       </c>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="24"/>
       <c r="B5" s="95"/>
       <c r="C5" s="24"/>
@@ -17056,7 +17905,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="24"/>
       <c r="B6" s="95"/>
       <c r="C6" s="24"/>
@@ -17069,7 +17918,7 @@
       <c r="J6" s="26"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="24"/>
       <c r="B7" s="29" t="s">
         <v>201</v>
@@ -17092,7 +17941,7 @@
       </c>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="24"/>
       <c r="B8" s="95"/>
       <c r="C8" s="24"/>
@@ -17105,7 +17954,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="B9" s="95"/>
       <c r="C9" s="24"/>
@@ -17118,7 +17967,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="B10" s="29" t="s">
         <v>202</v>
@@ -17141,7 +17990,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="24"/>
       <c r="B11" s="95"/>
       <c r="C11" s="24"/>
@@ -17154,7 +18003,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="24"/>
       <c r="B12" s="95"/>
       <c r="C12" s="24"/>
@@ -17167,7 +18016,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="24"/>
       <c r="B13" s="29" t="s">
         <v>323</v>
@@ -17190,7 +18039,7 @@
       </c>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="24"/>
       <c r="B14" s="95"/>
       <c r="C14" s="24"/>
@@ -17203,7 +18052,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="24"/>
       <c r="B15" s="95"/>
       <c r="C15" s="24"/>
@@ -17216,7 +18065,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="24"/>
       <c r="B16" s="71" t="s">
         <v>343</v>
@@ -17239,7 +18088,7 @@
       </c>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="24"/>
       <c r="B17" s="95"/>
       <c r="C17" s="24"/>
@@ -17252,7 +18101,7 @@
       <c r="J17" s="26"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="24"/>
       <c r="B18" s="95"/>
       <c r="C18" s="24"/>
@@ -17265,7 +18114,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="24"/>
       <c r="B19" s="29" t="s">
         <v>344</v>
@@ -17288,7 +18137,7 @@
       </c>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="24"/>
       <c r="B20" s="95"/>
       <c r="C20" s="24"/>
@@ -17301,7 +18150,7 @@
       <c r="J20" s="26"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="24"/>
       <c r="B21" s="95"/>
       <c r="C21" s="24"/>
@@ -17314,7 +18163,7 @@
       <c r="J21" s="26"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="24"/>
       <c r="B22" s="29" t="s">
         <v>345</v>
@@ -17337,7 +18186,7 @@
       </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="24"/>
       <c r="B23" s="95"/>
       <c r="C23" s="24"/>
@@ -17350,7 +18199,7 @@
       <c r="J23" s="26"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="24"/>
       <c r="B24" s="95"/>
       <c r="C24" s="24"/>
@@ -17363,7 +18212,7 @@
       <c r="J24" s="26"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="24"/>
       <c r="B25" s="29" t="s">
         <v>346</v>
@@ -17386,7 +18235,7 @@
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -17399,7 +18248,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -17414,7 +18263,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -17427,7 +18276,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="H30" s="1"/>
     </row>
   </sheetData>
@@ -17448,21 +18297,242 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="7.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="65"/>
+    <col min="5" max="5" width="10.83203125" style="65"/>
+    <col min="7" max="7" width="10.83203125" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="46"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="46"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="46"/>
+      <c r="B4" s="60"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="46"/>
+      <c r="B5" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="46"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="46"/>
+      <c r="B7" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="46"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="46"/>
+      <c r="B9" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="46"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="46"/>
+      <c r="B11" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="46"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="46"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="46"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:J11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="46"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -17474,7 +18544,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="72" t="s">
@@ -17500,7 +18570,7 @@
       </c>
       <c r="J4" s="46"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="73"/>
@@ -17512,7 +18582,7 @@
       <c r="I5" s="73"/>
       <c r="J5" s="46"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="46"/>
       <c r="B6" s="74" t="s">
         <v>353</v>
@@ -17540,7 +18610,7 @@
       </c>
       <c r="J6" s="46"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="46"/>
       <c r="B7" s="74"/>
       <c r="C7" s="73"/>
@@ -17552,7 +18622,7 @@
       <c r="I7" s="73"/>
       <c r="J7" s="46"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="46"/>
       <c r="B8" s="74" t="s">
         <v>352</v>
@@ -17580,7 +18650,7 @@
       </c>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -17592,232 +18662,11 @@
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" s="46" customFormat="1"/>
+    <row r="11" spans="1:10" s="46" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="7.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="65"/>
-    <col min="5" max="5" width="10.83203125" style="65"/>
-    <col min="7" max="7" width="10.83203125" style="65"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="60"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="67" t="s">
-        <v>335</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D13:F13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14020" tabRatio="917" activeTab="13"/>
+    <workbookView windowWidth="29400" windowHeight="15540" tabRatio="917" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="运营实施" sheetId="13" r:id="rId12"/>
     <sheet name="平台工程" sheetId="14" r:id="rId13"/>
     <sheet name="服务治理" sheetId="15" r:id="rId14"/>
+    <sheet name="云管分级" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="503">
   <si>
     <t>运维阶段</t>
   </si>
@@ -1595,6 +1596,141 @@
   <si>
     <t>自动化执行</t>
   </si>
+  <si>
+    <t>大类</t>
+  </si>
+  <si>
+    <t>管控等级(↑)</t>
+  </si>
+  <si>
+    <t>管控目标</t>
+  </si>
+  <si>
+    <t>管控点位</t>
+  </si>
+  <si>
+    <t>功能列表</t>
+  </si>
+  <si>
+    <t>举例</t>
+  </si>
+  <si>
+    <t>二开自研</t>
+  </si>
+  <si>
+    <t>代理组件</t>
+  </si>
+  <si>
+    <t>数据治理</t>
+  </si>
+  <si>
+    <t>数据面</t>
+  </si>
+  <si>
+    <t>代理</t>
+  </si>
+  <si>
+    <t>OS Proxy</t>
+  </si>
+  <si>
+    <t>服务治理</t>
+  </si>
+  <si>
+    <t>控制面</t>
+  </si>
+  <si>
+    <t>配管</t>
+  </si>
+  <si>
+    <t>K8S DevOps</t>
+  </si>
+  <si>
+    <t>常规资源</t>
+  </si>
+  <si>
+    <t>云管平台</t>
+  </si>
+  <si>
+    <t>基建治理</t>
+  </si>
+  <si>
+    <t>LB云监控，CDN云日志</t>
+  </si>
+  <si>
+    <t>交付(变更)</t>
+  </si>
+  <si>
+    <t>机器管理</t>
+  </si>
+  <si>
+    <t>资源FinOps</t>
+  </si>
+  <si>
+    <t>元数据</t>
+  </si>
+  <si>
+    <t>资源CMDB</t>
+  </si>
+  <si>
+    <t>小众产品</t>
+  </si>
+  <si>
+    <t>中台账号</t>
+  </si>
+  <si>
+    <t>运维自主</t>
+  </si>
+  <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>订单支付</t>
+  </si>
+  <si>
+    <t>大数据云服务</t>
+  </si>
+  <si>
+    <t>IAM授权</t>
+  </si>
+  <si>
+    <t>品类管理员</t>
+  </si>
+  <si>
+    <t>集团账号</t>
+  </si>
+  <si>
+    <t>财务自主</t>
+  </si>
+  <si>
+    <t>预算</t>
+  </si>
+  <si>
+    <t>信控划拨</t>
+  </si>
+  <si>
+    <t>直播部门账号</t>
+  </si>
+  <si>
+    <t>账号授权</t>
+  </si>
+  <si>
+    <t>集团账号负责人</t>
+  </si>
+  <si>
+    <t>自持账号</t>
+  </si>
+  <si>
+    <t>资产合规</t>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t>离职交接</t>
+  </si>
+  <si>
+    <t>小鹿阿里主账号</t>
+  </si>
 </sst>
 </file>
 
@@ -1606,7 +1742,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1632,7 +1768,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1640,7 +1776,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1655,14 +1791,6 @@
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.499984740745262"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1707,6 +1835,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFC9C9C9"/>
@@ -1742,28 +1876,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.0999786370433668"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="2" tint="-0.0999786370433668"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1783,9 +1896,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.0999786370433668"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="5"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.0999786370433668"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1823,6 +1951,22 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1955,12 +2099,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="5"/>
       <name val="DengXian (正文)"/>
       <charset val="134"/>
@@ -1973,13 +2111,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="MS PGothic"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1989,6 +2133,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,14 +2216,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="0"/>
+        <fgColor indexed="65"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2138,12 +2300,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2157,12 +2313,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,12 +2336,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2210,18 +2354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2229,12 +2361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,19 +2384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,27 +2557,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2472,58 +2589,55 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2532,22 +2646,34 @@
     <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2556,68 +2682,70 @@
     <xf numFmtId="0" fontId="47" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2627,160 +2755,160 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2788,79 +2916,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
     <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="注释" xfId="6" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="7" builtinId="11"/>
-    <cellStyle name="标题" xfId="8" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="9" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="10" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="11" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="12" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="输入" xfId="14" builtinId="20"/>
-    <cellStyle name="输出" xfId="15" builtinId="21"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="17" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="18" builtinId="24"/>
-    <cellStyle name="汇总" xfId="19" builtinId="25"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="差" xfId="21" builtinId="27"/>
-    <cellStyle name="适中" xfId="22" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="23" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="24" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="25" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="27" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="29" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="30" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="31" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="32" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="33" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="34" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="35" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="36" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="37" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="38" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="40" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="41" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="42" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="43" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="44" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -10012,162 +10142,162 @@
     <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="95" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="2:6">
-      <c r="B3" s="94" t="s">
+    <row r="3" ht="18" spans="2:8">
+      <c r="B3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="95"/>
-    </row>
-    <row r="4" ht="18" spans="2:6">
-      <c r="B4" s="97" t="s">
+      <c r="F3" s="97"/>
+    </row>
+    <row r="4" ht="18" spans="2:8">
+      <c r="B4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="97" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="36" spans="2:6">
-      <c r="B5" s="98"/>
-      <c r="C5" s="95" t="s">
+    <row r="5" ht="36" spans="2:8">
+      <c r="B5" s="102"/>
+      <c r="C5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="95"/>
-    </row>
-    <row r="6" ht="18" spans="2:6">
-      <c r="B6" s="99"/>
-      <c r="C6" s="95" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="97"/>
+    </row>
+    <row r="6" ht="18" spans="2:8">
+      <c r="B6" s="104"/>
+      <c r="C6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="98" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="105"/>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="97" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="2:6">
-      <c r="B7" s="97" t="s">
+    <row r="7" ht="18" spans="2:8">
+      <c r="B7" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="95"/>
-    </row>
-    <row r="8" ht="18" spans="2:6">
-      <c r="B8" s="98"/>
-      <c r="C8" s="100" t="s">
+      <c r="F7" s="97"/>
+    </row>
+    <row r="8" ht="18" spans="2:8">
+      <c r="B8" s="102"/>
+      <c r="C8" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="95" t="s">
+      <c r="E8" s="103"/>
+      <c r="F8" s="97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="2:6">
-      <c r="B9" s="98"/>
-      <c r="C9" s="95" t="s">
+    <row r="9" ht="18" spans="2:8">
+      <c r="B9" s="102"/>
+      <c r="C9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="98" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="105"/>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="97" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="2:6">
-      <c r="B10" s="99"/>
-      <c r="C10" s="101" t="s">
+    <row r="10" ht="18" spans="2:8">
+      <c r="B10" s="104"/>
+      <c r="C10" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="97" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="2:6">
-      <c r="B11" s="97" t="s">
+    <row r="11" ht="18" spans="2:8">
+      <c r="B11" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="97" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="2:6">
-      <c r="B12" s="99"/>
-      <c r="C12" s="95" t="s">
+    <row r="12" ht="18" spans="2:8">
+      <c r="B12" s="104"/>
+      <c r="C12" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="98" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="105"/>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="97" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10175,20 +10305,20 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="106"/>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="H15" s="108"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="80" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" s="82" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10277,17 +10407,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="2:6">
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10321,446 +10451,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="48"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="48"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="39"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="48"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="48"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="48"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="48"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="52" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="48"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="48"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37" t="s">
+      <c r="G12" s="40"/>
+      <c r="H12" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37" t="s">
+      <c r="I12" s="40"/>
+      <c r="J12" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="48"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="39"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="48"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="48"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="52" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="53" t="s">
+      <c r="I15" s="40"/>
+      <c r="J15" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="48"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="48"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="39"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="48"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="48"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="48"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="48"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="46"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="46"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="46"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="46"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="47" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="52"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="52"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="52"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55" t="s">
         <v>292</v>
       </c>
     </row>
@@ -10806,112 +10936,112 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:23">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="35" t="s">
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="Q9" s="33" t="s">
+      <c r="Q9" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -10919,7 +11049,7 @@
       <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>103</v>
       </c>
       <c r="E10" t="s">
@@ -10934,22 +11064,22 @@
       <c r="H10" t="s">
         <v>312</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="34" t="s">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29" t="s">
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34" t="s">
         <v>314</v>
       </c>
     </row>
@@ -10960,20 +11090,20 @@
       <c r="B11" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -10997,20 +11127,20 @@
       <c r="G12" t="s">
         <v>310</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
@@ -11028,20 +11158,20 @@
       <c r="E13" t="s">
         <v>318</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
@@ -11056,26 +11186,26 @@
       <c r="E14" t="s">
         <v>318</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="33" t="s">
         <v>115</v>
       </c>
       <c r="E15" t="s">
@@ -11087,20 +11217,20 @@
       <c r="G15" t="s">
         <v>320</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
@@ -11109,26 +11239,26 @@
       <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C17" t="s">
@@ -11140,20 +11270,20 @@
       <c r="F17" t="s">
         <v>321</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
@@ -11168,26 +11298,26 @@
       <c r="E18" t="s">
         <v>318</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="22" t="s">
         <v>119</v>
       </c>
       <c r="C19" t="s">
@@ -11202,20 +11332,20 @@
       <c r="G19" t="s">
         <v>319</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
@@ -11230,26 +11360,26 @@
       <c r="D20" t="s">
         <v>323</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C21" t="s">
@@ -11264,28 +11394,28 @@
       <c r="G21" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29" t="s">
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -11303,22 +11433,22 @@
       <c r="H22" t="s">
         <v>326</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29" t="s">
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
@@ -11330,24 +11460,24 @@
       <c r="C23" t="s">
         <v>315</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
@@ -11359,87 +11489,87 @@
       <c r="C24" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29" t="s">
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29" t="s">
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="33" t="s">
         <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>315</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="37" t="s">
         <v>328</v>
       </c>
       <c r="F26" t="s">
         <v>331</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
@@ -11451,36 +11581,36 @@
       <c r="C27" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>322</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37" t="s">
         <v>332</v>
       </c>
       <c r="F28" t="s">
@@ -11492,22 +11622,22 @@
       <c r="H28" t="s">
         <v>334</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29" t="s">
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
@@ -11528,22 +11658,22 @@
       <c r="G29" t="s">
         <v>333</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29" t="s">
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
@@ -11555,46 +11685,46 @@
       <c r="C30" t="s">
         <v>322</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="36" t="s">
         <v>318</v>
       </c>
       <c r="F30" t="s">
         <v>311</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29" t="s">
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="33" t="s">
         <v>339</v>
       </c>
       <c r="C31" t="s">
         <v>322</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37" t="s">
         <v>331</v>
       </c>
       <c r="F31" t="s">
@@ -11606,22 +11736,22 @@
       <c r="H31" t="s">
         <v>341</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29" t="s">
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
@@ -11630,20 +11760,20 @@
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
@@ -11664,20 +11794,20 @@
       <c r="H33" t="s">
         <v>345</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
@@ -11695,20 +11825,20 @@
       <c r="H34" t="s">
         <v>348</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
@@ -11729,20 +11859,20 @@
       <c r="H35" t="s">
         <v>351</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
@@ -11751,20 +11881,20 @@
       <c r="B36" t="s">
         <v>352</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
@@ -11773,20 +11903,20 @@
       <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
@@ -11804,20 +11934,20 @@
       <c r="F38" t="s">
         <v>353</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
@@ -11826,26 +11956,26 @@
       <c r="B39" t="s">
         <v>354</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>355</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="33" t="s">
         <v>356</v>
       </c>
       <c r="C40" t="s">
@@ -11866,26 +11996,26 @@
       <c r="H40" t="s">
         <v>359</v>
       </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>355</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="33" t="s">
         <v>346</v>
       </c>
       <c r="C41" t="s">
@@ -11906,26 +12036,26 @@
       <c r="H41" t="s">
         <v>360</v>
       </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>355</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="33" t="s">
         <v>361</v>
       </c>
       <c r="C42" t="s">
@@ -11943,20 +12073,20 @@
       <c r="H42" t="s">
         <v>331</v>
       </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
@@ -11974,29 +12104,29 @@
       <c r="E43" t="s">
         <v>310</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>355</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="33" t="s">
         <v>364</v>
       </c>
       <c r="F44" t="s">
@@ -12008,26 +12138,26 @@
       <c r="H44" t="s">
         <v>359</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>355</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="33" t="s">
         <v>366</v>
       </c>
       <c r="F45" t="s">
@@ -12036,26 +12166,26 @@
       <c r="H45" t="s">
         <v>359</v>
       </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="33" t="s">
         <v>255</v>
       </c>
       <c r="D46" t="s">
@@ -12070,21 +12200,21 @@
       <c r="I46" t="s">
         <v>368</v>
       </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29" t="s">
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>370</v>
       </c>
@@ -12117,26 +12247,26 @@
       <c r="B48" t="s">
         <v>376</v>
       </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="34" t="s">
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="N48" s="34" t="s">
+      <c r="N48" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="34" t="s">
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="W48" s="29"/>
+      <c r="W48" s="34"/>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
@@ -12145,7 +12275,7 @@
       <c r="B49" t="s">
         <v>380</v>
       </c>
-      <c r="O49" s="29" t="s">
+      <c r="O49" s="34" t="s">
         <v>381</v>
       </c>
       <c r="W49" t="s">
@@ -12189,34 +12319,34 @@
     <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5">
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:9">
+      <c r="C4" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="1:9">
+      <c r="C6" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="3:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" ht="18" spans="1:9">
+      <c r="C8" s="15" t="s">
         <v>390</v>
       </c>
       <c r="E8" t="s">
@@ -12232,7 +12362,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>395</v>
       </c>
@@ -12246,19 +12376,19 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="13" t="s">
+    <row r="10" spans="1:9">
+      <c r="C10" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="20" t="s">
         <v>402</v>
       </c>
       <c r="E11" t="s">
@@ -12274,61 +12404,61 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="22" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" ht="18" spans="3:9">
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="H14" s="20" t="s">
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" ht="18" spans="1:9">
+      <c r="C14" s="21"/>
+      <c r="D14" s="20"/>
+      <c r="H14" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" ht="18" spans="3:7">
-      <c r="C16" s="13" t="s">
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="18" spans="1:9">
+      <c r="C16" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="23" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="16"/>
-      <c r="H20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="H20" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12353,96 +12483,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="36" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="36" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12455,8 +12585,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -12468,21 +12598,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B2" t="s">
@@ -12495,8 +12625,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>433</v>
       </c>
@@ -12505,7 +12635,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>438</v>
       </c>
@@ -12517,7 +12647,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>439</v>
       </c>
@@ -12528,8 +12658,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B6" t="s">
@@ -12540,7 +12670,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>445</v>
       </c>
@@ -12552,7 +12682,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B8" t="s">
@@ -12566,7 +12696,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>451</v>
       </c>
@@ -12578,26 +12708,26 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>252</v>
       </c>
     </row>
@@ -12607,6 +12737,235 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="9.46666666666667" customWidth="1"/>
+    <col min="3" max="6" width="11.925" customWidth="1"/>
+    <col min="7" max="7" width="22.0666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="26" customHeight="1" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" t="s">
+        <v>496</v>
+      </c>
+      <c r="G12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D13" t="s">
+        <v>499</v>
+      </c>
+      <c r="E13" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" t="s">
+        <v>501</v>
+      </c>
+      <c r="G13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -12641,7 +13000,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -12656,142 +13015,142 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="89" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87" t="s">
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="89"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="89"/>
-      <c r="C9" s="89" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="91" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89" t="s">
+      <c r="E10" s="91"/>
+      <c r="F10" s="91" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="93" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="94" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="92"/>
-      <c r="C17" s="92" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="94" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>83</v>
       </c>
@@ -12819,7 +13178,7 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="12.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="5" style="17" customWidth="1"/>
     <col min="13" max="15" width="9.5" customWidth="1"/>
     <col min="16" max="17" width="12.3333333333333" customWidth="1"/>
     <col min="18" max="18" width="11.8333333333333" customWidth="1"/>
@@ -12829,137 +13188,137 @@
     <col min="24" max="24" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21">
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:23">
+      <c r="C1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="83" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="27" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="31" t="s">
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="83" t="s">
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13031,7 +13390,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -13096,7 +13455,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -13161,7 +13520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -13294,7 +13653,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -13359,7 +13718,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -13424,7 +13783,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -13455,10 +13814,10 @@
       <c r="J12" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="85"/>
+      <c r="L12" s="87"/>
       <c r="M12" t="s">
         <v>104</v>
       </c>
@@ -13490,7 +13849,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -13512,7 +13871,7 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="36" t="s">
         <v>15</v>
       </c>
       <c r="I13" t="s">
@@ -13536,7 +13895,7 @@
       <c r="P13" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="36" t="s">
         <v>6</v>
       </c>
       <c r="R13" t="s">
@@ -13555,7 +13914,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -13568,19 +13927,19 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="36" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="36" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
@@ -13620,7 +13979,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -13633,10 +13992,10 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
@@ -13645,7 +14004,7 @@
       <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="36" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
@@ -13685,7 +14044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -13695,7 +14054,7 @@
       <c r="C16" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
@@ -13704,7 +14063,7 @@
       <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H16" t="s">
@@ -13716,10 +14075,10 @@
       <c r="J16" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="85"/>
+      <c r="L16" s="87"/>
       <c r="M16" t="s">
         <v>104</v>
       </c>
@@ -13751,7 +14110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -13761,7 +14120,7 @@
       <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
@@ -13782,10 +14141,10 @@
       <c r="J17" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="85"/>
+      <c r="L17" s="87"/>
       <c r="M17" t="s">
         <v>104</v>
       </c>
@@ -13817,7 +14176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -13827,7 +14186,7 @@
       <c r="C18" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
@@ -13848,10 +14207,10 @@
       <c r="J18" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="85"/>
+      <c r="L18" s="87"/>
       <c r="M18" t="s">
         <v>104</v>
       </c>
@@ -13883,7 +14242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -13893,31 +14252,31 @@
       <c r="C19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="36" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="36" t="s">
         <v>21</v>
       </c>
       <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="85"/>
+      <c r="L19" s="87"/>
       <c r="M19" t="s">
         <v>104</v>
       </c>
@@ -13949,7 +14308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -13959,16 +14318,16 @@
       <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H20" t="s">
@@ -13980,10 +14339,10 @@
       <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="85"/>
+      <c r="L20" s="87"/>
       <c r="M20" t="s">
         <v>104</v>
       </c>
@@ -14015,7 +14374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -14040,7 +14399,7 @@
       <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="36" t="s">
         <v>21</v>
       </c>
       <c r="J21" t="s">
@@ -14080,7 +14439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -14145,7 +14504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -14158,13 +14517,13 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="36" t="s">
         <v>104</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H23" t="s">
@@ -14176,10 +14535,10 @@
       <c r="J23" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="85"/>
+      <c r="L23" s="87"/>
       <c r="M23" t="s">
         <v>104</v>
       </c>
@@ -14211,7 +14570,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -14224,13 +14583,13 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="36" t="s">
         <v>104</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H24" t="s">
@@ -14242,10 +14601,10 @@
       <c r="J24" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="85"/>
+      <c r="L24" s="87"/>
       <c r="M24" t="s">
         <v>104</v>
       </c>
@@ -14277,7 +14636,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -14290,13 +14649,13 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="36" t="s">
         <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H25" t="s">
@@ -14308,10 +14667,10 @@
       <c r="J25" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="85"/>
+      <c r="L25" s="87"/>
       <c r="M25" t="s">
         <v>104</v>
       </c>
@@ -14330,7 +14689,7 @@
       <c r="R25" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="36" t="s">
         <v>104</v>
       </c>
       <c r="T25" t="s">
@@ -14343,7 +14702,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -14356,28 +14715,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="36" t="s">
         <v>21</v>
       </c>
       <c r="J26" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="85"/>
+      <c r="L26" s="87"/>
       <c r="M26" t="s">
         <v>104</v>
       </c>
@@ -14409,7 +14768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -14422,7 +14781,7 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="36" t="s">
         <v>104</v>
       </c>
       <c r="F27" t="s">
@@ -14440,10 +14799,10 @@
       <c r="J27" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="85"/>
+      <c r="L27" s="87"/>
       <c r="M27" t="s">
         <v>104</v>
       </c>
@@ -14462,7 +14821,7 @@
       <c r="R27" t="s">
         <v>6</v>
       </c>
-      <c r="S27" s="25" t="s">
+      <c r="S27" s="36" t="s">
         <v>104</v>
       </c>
       <c r="T27" t="s">
@@ -14475,7 +14834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -14488,16 +14847,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="36" t="s">
         <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="36" t="s">
         <v>26</v>
       </c>
       <c r="I28" t="s">
@@ -14506,10 +14865,10 @@
       <c r="J28" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="85"/>
+      <c r="L28" s="87"/>
       <c r="M28" t="s">
         <v>104</v>
       </c>
@@ -14541,7 +14900,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -14619,16 +14978,16 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="36" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="36" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
@@ -14687,16 +15046,16 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="36" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="36" t="s">
         <v>15</v>
       </c>
       <c r="I31" t="s">
@@ -14755,16 +15114,16 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="36" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="36" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
@@ -14823,16 +15182,16 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="36" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="36" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
@@ -14917,426 +15276,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="79" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="78"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="78"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="78"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="78"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="80" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="81" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="84" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="78"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="84" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="78"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="78"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="78"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="78"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="80"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="78"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="78"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="80" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="79" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="78"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="78"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="78"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="78"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>224</v>
       </c>
@@ -15379,411 +15738,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70" t="s">
+      <c r="A2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="73"/>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="72" t="s">
         <v>226</v>
       </c>
       <c r="G2" s="73"/>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="72" t="s">
         <v>227</v>
       </c>
       <c r="I2" s="73"/>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="69"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="73"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="69"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="73"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="69"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="69"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="73"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="69"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="69"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="73"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="69"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72" t="s">
+      <c r="G10" s="75"/>
+      <c r="H10" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="75"/>
+      <c r="J10" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="69"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="73"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="69"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="69"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="73"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="69"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="72" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="75" t="s">
+      <c r="I13" s="75"/>
+      <c r="J13" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="69"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="69"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="69"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="73"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="69"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72" t="s">
+      <c r="G16" s="75"/>
+      <c r="H16" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="69"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="73"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="69"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="69"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="73"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="69"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="69"/>
-      <c r="B19" s="71" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="75"/>
+      <c r="F19" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72" t="s">
+      <c r="G19" s="75"/>
+      <c r="H19" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="75" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="69"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="73"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="69"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="69"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="73"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="69"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="69"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="72" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72" t="s">
+      <c r="E22" s="75"/>
+      <c r="F22" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72" t="s">
+      <c r="G22" s="75"/>
+      <c r="H22" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72" t="s">
+      <c r="I22" s="75"/>
+      <c r="J22" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="65" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="14"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="H27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15821,460 +16180,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70" t="s">
+      <c r="A2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="73"/>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="72" t="s">
         <v>226</v>
       </c>
       <c r="G2" s="73"/>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="72" t="s">
         <v>227</v>
       </c>
       <c r="I2" s="73"/>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="69"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="73"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="69"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="73"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="69"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="69"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="73"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="69"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="69"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="73"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="69"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72" t="s">
+      <c r="G10" s="75"/>
+      <c r="H10" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="75"/>
+      <c r="J10" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="69"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="69"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="73"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="69"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="69"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="73"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="69"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="72" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="75" t="s">
+      <c r="I13" s="75"/>
+      <c r="J13" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="69"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="69"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="69"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="73"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="69"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72" t="s">
+      <c r="G16" s="75"/>
+      <c r="H16" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="75" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="69"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="73"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="69"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="69"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="73"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="69"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="69"/>
-      <c r="B19" s="71" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="75" t="s">
+      <c r="E19" s="75"/>
+      <c r="F19" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72" t="s">
+      <c r="G19" s="75"/>
+      <c r="H19" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="69"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="73"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="69"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="69"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="73"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="69"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="69"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="72" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72" t="s">
+      <c r="E22" s="75"/>
+      <c r="F22" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72" t="s">
+      <c r="G22" s="75"/>
+      <c r="H22" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="75" t="s">
+      <c r="I22" s="75"/>
+      <c r="J22" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="69"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="73"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="69"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="69"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="73"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="69"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="69"/>
-      <c r="B25" s="71" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="72" t="s">
+      <c r="C25" s="71"/>
+      <c r="D25" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72" t="s">
+      <c r="E25" s="75"/>
+      <c r="F25" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72" t="s">
+      <c r="G25" s="75"/>
+      <c r="H25" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72" t="s">
+      <c r="I25" s="75"/>
+      <c r="J25" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="K25" s="69"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="65" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="14"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="H30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16304,206 +16663,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="7.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" style="59"/>
-    <col min="5" max="5" width="10.8333333333333" style="59"/>
-    <col min="7" max="7" width="10.8333333333333" style="59"/>
+    <col min="2" max="2" width="7.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.8333333333333" style="61"/>
+    <col min="5" max="5" width="10.8333333333333" style="61"/>
+    <col min="7" max="7" width="10.8333333333333" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="46"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="46"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="46"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="63" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="60"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="62"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="46"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="46"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="46"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="46"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="46"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="46"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="46"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="46"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="68" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="46"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="46"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="65" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16532,137 +16891,137 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="54" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="46"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="46"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="46"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="46"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="46"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="J8" s="46"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-    </row>
-    <row r="10" s="46" customFormat="1"/>
-    <row r="11" s="46" customFormat="1"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" s="52" customFormat="1"/>
+    <row r="11" s="52" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="15540" tabRatio="917" activeTab="14"/>
+    <workbookView windowWidth="28260" windowHeight="15540" tabRatio="917" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -12749,7 +12749,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="6"/>

--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="15540" tabRatio="917" activeTab="14"/>
+    <workbookView windowWidth="29400" windowHeight="15540" tabRatio="917" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="对账场景" sheetId="7" r:id="rId10"/>
     <sheet name="运营建模" sheetId="9" r:id="rId11"/>
     <sheet name="运营实施" sheetId="13" r:id="rId12"/>
-    <sheet name="平台工程" sheetId="14" r:id="rId13"/>
-    <sheet name="服务治理" sheetId="15" r:id="rId14"/>
+    <sheet name="服务治理" sheetId="15" r:id="rId13"/>
+    <sheet name="平台工程" sheetId="14" r:id="rId14"/>
     <sheet name="云管分级" sheetId="16" r:id="rId15"/>
+    <sheet name="运维平台" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -138,8 +139,30 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>niean</author>
+  </authors>
+  <commentList>
+    <comment ref="G15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Agent命令通道，跳板、中控</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="533">
   <si>
     <t>运维阶段</t>
   </si>
@@ -1439,6 +1462,90 @@
     <t>审阅确保执行到位</t>
   </si>
   <si>
+    <t>维度</t>
+  </si>
+  <si>
+    <t>关键能力</t>
+  </si>
+  <si>
+    <t>典型技术/工具</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>注册和发现</t>
+  </si>
+  <si>
+    <t>自动注册，动态发现</t>
+  </si>
+  <si>
+    <t>Nacos</t>
+  </si>
+  <si>
+    <t>通信协议(Rest/RPC/MQ)</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
+  </si>
+  <si>
+    <t>流控</t>
+  </si>
+  <si>
+    <t>路由，AB/蓝绿/金丝雀(服务间 单元间)</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>观测</t>
+  </si>
+  <si>
+    <t>Metric、Logging、Tracing，OLAP</t>
+  </si>
+  <si>
+    <t>容错和韧性</t>
+  </si>
+  <si>
+    <t>切限降熔、重试</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>身份认证，权限控制(含ACL)</t>
+  </si>
+  <si>
+    <t>JWT,ABAC</t>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>通信加密</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>动态配置</t>
+  </si>
+  <si>
+    <t>配置中心</t>
+  </si>
+  <si>
+    <t>生命周期</t>
+  </si>
+  <si>
+    <t>自动化执行</t>
+  </si>
+  <si>
     <t>问题：不同角色 如何看待平台工程?</t>
   </si>
   <si>
@@ -1513,90 +1620,6 @@
     <t>技术解绑</t>
   </si>
   <si>
-    <t>维度</t>
-  </si>
-  <si>
-    <t>关键能力</t>
-  </si>
-  <si>
-    <t>典型技术/工具</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>注册和发现</t>
-  </si>
-  <si>
-    <t>自动注册，动态发现</t>
-  </si>
-  <si>
-    <t>Nacos</t>
-  </si>
-  <si>
-    <t>通信协议(Rest/RPC/MQ)</t>
-  </si>
-  <si>
-    <t>负载均衡</t>
-  </si>
-  <si>
-    <t>流控</t>
-  </si>
-  <si>
-    <t>路由，AB/蓝绿/金丝雀(服务间 单元间)</t>
-  </si>
-  <si>
-    <t>Nginx</t>
-  </si>
-  <si>
-    <t>质量</t>
-  </si>
-  <si>
-    <t>观测</t>
-  </si>
-  <si>
-    <t>Metric、Logging、Tracing，OLAP</t>
-  </si>
-  <si>
-    <t>容错和韧性</t>
-  </si>
-  <si>
-    <t>切限降熔、重试</t>
-  </si>
-  <si>
-    <t>Sentinel</t>
-  </si>
-  <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>身份认证，权限控制(含ACL)</t>
-  </si>
-  <si>
-    <t>JWT,ABAC</t>
-  </si>
-  <si>
-    <t>加密</t>
-  </si>
-  <si>
-    <t>通信加密</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>动态配置</t>
-  </si>
-  <si>
-    <t>配置中心</t>
-  </si>
-  <si>
-    <t>生命周期</t>
-  </si>
-  <si>
-    <t>自动化执行</t>
-  </si>
-  <si>
     <t>大类</t>
   </si>
   <si>
@@ -1690,9 +1713,6 @@
     <t>大数据云服务</t>
   </si>
   <si>
-    <t>IAM授权</t>
-  </si>
-  <si>
     <t>品类管理员</t>
   </si>
   <si>
@@ -1730,6 +1750,99 @@
   </si>
   <si>
     <t>小鹿阿里主账号</t>
+  </si>
+  <si>
+    <t>运维服务全景图-202512</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>主体</t>
+  </si>
+  <si>
+    <t>管理能力</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>需求交付</t>
+  </si>
+  <si>
+    <t>ICP备案</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>财务结算</t>
+  </si>
+  <si>
+    <t>ES/CK</t>
+  </si>
+  <si>
+    <t>代码框架</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>运行时</t>
+  </si>
+  <si>
+    <t>场景聚合</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>编排调度</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>容器镜像</t>
+  </si>
+  <si>
+    <t>运维中台</t>
+  </si>
+  <si>
+    <t>成本：计量、计费，对账，分摊、预算，报表</t>
+  </si>
+  <si>
+    <t>观测：采集，计算，存储，报警、巡检，报表</t>
+  </si>
+  <si>
+    <t>变更：编排、管控CM/决策、执行,工单、作业、CD、预案</t>
+  </si>
+  <si>
+    <t>IAM：身份，权限</t>
+  </si>
+  <si>
+    <t>元数据：CMDB、ZNS，IPS</t>
+  </si>
+  <si>
+    <t>云管API</t>
+  </si>
+  <si>
+    <t>K8S API</t>
+  </si>
+  <si>
+    <t>设备代理</t>
+  </si>
+  <si>
+    <t>资源对象</t>
+  </si>
+  <si>
+    <t>多云厂商</t>
+  </si>
+  <si>
+    <t>K8S PaaS</t>
+  </si>
+  <si>
+    <t>物理设备</t>
   </si>
 </sst>
 </file>
@@ -1742,9 +1855,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="55">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2117,13 +2238,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="MS PGothic"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2139,6 +2265,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2241,12 +2379,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2389,12 +2521,102 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2432,30 +2654,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2559,31 +2757,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2592,37 +2787,37 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2634,79 +2829,138 @@
     <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2715,33 +2969,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2751,178 +3005,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2931,14 +3185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -9868,6 +10122,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>827405</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>222885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8828405" y="419735"/>
+          <a:ext cx="5508625" cy="2744470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29845</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8869045" y="4100195"/>
+          <a:ext cx="5441315" cy="3023235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -10143,161 +10482,161 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="115" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" spans="2:8">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="117"/>
     </row>
     <row r="4" ht="18" spans="2:8">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="36" spans="2:8">
-      <c r="B5" s="102"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="122"/>
+      <c r="C5" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="97"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" ht="18" spans="2:8">
-      <c r="B6" s="104"/>
-      <c r="C6" s="97" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="97" t="s">
+      <c r="E6" s="125"/>
+      <c r="F6" s="117" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="18" spans="2:8">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="117"/>
     </row>
     <row r="8" ht="18" spans="2:8">
-      <c r="B8" s="102"/>
-      <c r="C8" s="106" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="97" t="s">
+      <c r="E8" s="123"/>
+      <c r="F8" s="117" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="18" spans="2:8">
-      <c r="B9" s="102"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="97" t="s">
+      <c r="E9" s="125"/>
+      <c r="F9" s="117" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="18" spans="2:8">
-      <c r="B10" s="104"/>
-      <c r="C10" s="107" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="117" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="18" spans="2:8">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="117" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="18" spans="2:8">
-      <c r="B12" s="104"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="97" t="s">
+      <c r="E12" s="125"/>
+      <c r="F12" s="117" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10305,7 +10644,7 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="108"/>
+      <c r="H15" s="128"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
@@ -10318,7 +10657,7 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="102" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10411,13 +10750,13 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="56" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="56" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10451,446 +10790,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="42"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="42"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="42"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="42"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="42"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="42"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="46" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40" t="s">
+      <c r="G12" s="60"/>
+      <c r="H12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="42"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="47" t="s">
+      <c r="G15" s="60"/>
+      <c r="H15" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="46" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="42"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="42"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="39"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="39"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="39"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="52"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="52"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="52"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="52"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="75" t="s">
         <v>292</v>
       </c>
     </row>
@@ -10936,112 +11275,112 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:23">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28" t="s">
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30" t="s">
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="V9" s="31" t="s">
+      <c r="V9" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -11049,7 +11388,7 @@
       <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="53" t="s">
         <v>103</v>
       </c>
       <c r="E10" t="s">
@@ -11064,22 +11403,22 @@
       <c r="H10" t="s">
         <v>312</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34" t="s">
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54" t="s">
         <v>314</v>
       </c>
     </row>
@@ -11090,20 +11429,20 @@
       <c r="B11" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -11127,20 +11466,20 @@
       <c r="G12" t="s">
         <v>310</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
@@ -11158,20 +11497,20 @@
       <c r="E13" t="s">
         <v>318</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
@@ -11186,26 +11525,26 @@
       <c r="E14" t="s">
         <v>318</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="53" t="s">
         <v>115</v>
       </c>
       <c r="E15" t="s">
@@ -11217,20 +11556,20 @@
       <c r="G15" t="s">
         <v>320</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
@@ -11239,26 +11578,26 @@
       <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="53" t="s">
         <v>117</v>
       </c>
       <c r="C17" t="s">
@@ -11270,20 +11609,20 @@
       <c r="F17" t="s">
         <v>321</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
@@ -11298,26 +11637,26 @@
       <c r="E18" t="s">
         <v>318</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C19" t="s">
@@ -11332,20 +11671,20 @@
       <c r="G19" t="s">
         <v>319</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
@@ -11360,26 +11699,26 @@
       <c r="D20" t="s">
         <v>323</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="53" t="s">
         <v>121</v>
       </c>
       <c r="C21" t="s">
@@ -11394,28 +11733,28 @@
       <c r="G21" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34" t="s">
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="53" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -11433,22 +11772,22 @@
       <c r="H22" t="s">
         <v>326</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34" t="s">
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
@@ -11460,24 +11799,24 @@
       <c r="C23" t="s">
         <v>315</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
@@ -11489,87 +11828,87 @@
       <c r="C24" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34" t="s">
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="53" t="s">
         <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>315</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="57" t="s">
         <v>328</v>
       </c>
       <c r="F26" t="s">
         <v>331</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
@@ -11581,36 +11920,36 @@
       <c r="C27" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>322</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="57" t="s">
         <v>332</v>
       </c>
       <c r="F28" t="s">
@@ -11622,22 +11961,22 @@
       <c r="H28" t="s">
         <v>334</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34" t="s">
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
@@ -11658,22 +11997,22 @@
       <c r="G29" t="s">
         <v>333</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34" t="s">
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
@@ -11685,46 +12024,46 @@
       <c r="C30" t="s">
         <v>322</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="56" t="s">
         <v>318</v>
       </c>
       <c r="F30" t="s">
         <v>311</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="53" t="s">
         <v>339</v>
       </c>
       <c r="C31" t="s">
         <v>322</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="57" t="s">
         <v>331</v>
       </c>
       <c r="F31" t="s">
@@ -11736,22 +12075,22 @@
       <c r="H31" t="s">
         <v>341</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34" t="s">
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
@@ -11760,20 +12099,20 @@
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
@@ -11794,20 +12133,20 @@
       <c r="H33" t="s">
         <v>345</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
@@ -11825,20 +12164,20 @@
       <c r="H34" t="s">
         <v>348</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
@@ -11859,20 +12198,20 @@
       <c r="H35" t="s">
         <v>351</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
@@ -11881,20 +12220,20 @@
       <c r="B36" t="s">
         <v>352</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
@@ -11903,20 +12242,20 @@
       <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
@@ -11934,20 +12273,20 @@
       <c r="F38" t="s">
         <v>353</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
@@ -11956,26 +12295,26 @@
       <c r="B39" t="s">
         <v>354</v>
       </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>355</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="53" t="s">
         <v>356</v>
       </c>
       <c r="C40" t="s">
@@ -11996,26 +12335,26 @@
       <c r="H40" t="s">
         <v>359</v>
       </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>355</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="53" t="s">
         <v>346</v>
       </c>
       <c r="C41" t="s">
@@ -12036,26 +12375,26 @@
       <c r="H41" t="s">
         <v>360</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>355</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="53" t="s">
         <v>361</v>
       </c>
       <c r="C42" t="s">
@@ -12073,20 +12412,20 @@
       <c r="H42" t="s">
         <v>331</v>
       </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
@@ -12104,29 +12443,29 @@
       <c r="E43" t="s">
         <v>310</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>355</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="53" t="s">
         <v>364</v>
       </c>
       <c r="F44" t="s">
@@ -12138,26 +12477,26 @@
       <c r="H44" t="s">
         <v>359</v>
       </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>355</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="53" t="s">
         <v>366</v>
       </c>
       <c r="F45" t="s">
@@ -12166,26 +12505,26 @@
       <c r="H45" t="s">
         <v>359</v>
       </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="53" t="s">
         <v>255</v>
       </c>
       <c r="D46" t="s">
@@ -12200,17 +12539,17 @@
       <c r="I46" t="s">
         <v>368</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34" t="s">
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54" t="s">
         <v>369</v>
       </c>
     </row>
@@ -12247,26 +12586,26 @@
       <c r="B48" t="s">
         <v>376</v>
       </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="35" t="s">
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="N48" s="35" t="s">
+      <c r="N48" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="35" t="s">
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="W48" s="34"/>
+      <c r="W48" s="54"/>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
@@ -12275,7 +12614,7 @@
       <c r="B49" t="s">
         <v>380</v>
       </c>
-      <c r="O49" s="34" t="s">
+      <c r="O49" s="54" t="s">
         <v>381</v>
       </c>
       <c r="W49" t="s">
@@ -12320,33 +12659,33 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="36" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="38" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:9">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="35" t="s">
         <v>390</v>
       </c>
       <c r="E8" t="s">
@@ -12377,18 +12716,18 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="35" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="40" t="s">
         <v>402</v>
       </c>
       <c r="E11" t="s">
@@ -12405,60 +12744,60 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="42" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" ht="18" spans="1:9">
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="H14" s="22" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="H14" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" ht="18" spans="1:9">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="43" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="20"/>
-      <c r="H20" s="22"/>
+      <c r="D20" s="40"/>
+      <c r="H20" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12468,6 +12807,169 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.275" customWidth="1"/>
+    <col min="2" max="2" width="14.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="39.5333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="23"/>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="23"/>
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="23"/>
+      <c r="B9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E12"/>
@@ -12483,262 +12985,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" ht="36" spans="1:5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" ht="36" spans="1:5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="D12" s="14"/>
+      <c r="D12" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="10.275" customWidth="1"/>
-    <col min="2" max="2" width="14.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="39.5333333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.2666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -12748,8 +13087,8 @@
   <sheetPr/>
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -12760,33 +13099,33 @@
   </cols>
   <sheetData>
     <row r="2" ht="26" customHeight="1" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="21" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="23" t="s">
         <v>466</v>
       </c>
       <c r="E3" t="s">
@@ -12800,9 +13139,9 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>470</v>
       </c>
       <c r="E4" t="s">
@@ -12816,30 +13155,30 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="23" t="s">
         <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" t="s">
         <v>478</v>
       </c>
@@ -12848,10 +13187,10 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" t="s">
         <v>203</v>
       </c>
@@ -12860,10 +13199,10 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" t="s">
         <v>481</v>
       </c>
@@ -12872,16 +13211,16 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="23" t="s">
         <v>486</v>
       </c>
       <c r="F9" t="s">
@@ -12892,63 +13231,63 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" t="s">
         <v>489</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="25"/>
+      <c r="C11" s="23" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" t="s">
         <v>493</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>494</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="25"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>496</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="25"/>
+      <c r="C13" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="5"/>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>498</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>499</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>500</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>501</v>
-      </c>
-      <c r="G13" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -12969,6 +13308,246 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="16383" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.4" spans="2:7">
+      <c r="B1" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13015,138 +13594,138 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="109" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="89"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="111" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="111" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91" t="s">
+      <c r="E10" s="111"/>
+      <c r="F10" s="111" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91" t="s">
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="113" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="114" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="94"/>
-      <c r="C17" s="94" t="s">
+      <c r="B17" s="114"/>
+      <c r="C17" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="114" t="s">
         <v>82</v>
       </c>
     </row>
@@ -13178,7 +13757,7 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="12.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="5" style="37" customWidth="1"/>
     <col min="13" max="15" width="9.5" customWidth="1"/>
     <col min="16" max="17" width="12.3333333333333" customWidth="1"/>
     <col min="18" max="18" width="11.8333333333333" customWidth="1"/>
@@ -13189,136 +13768,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="85" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="28" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="85" t="s">
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13814,10 +14393,10 @@
       <c r="J12" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="87"/>
+      <c r="L12" s="107"/>
       <c r="M12" t="s">
         <v>104</v>
       </c>
@@ -13871,7 +14450,7 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="56" t="s">
         <v>15</v>
       </c>
       <c r="I13" t="s">
@@ -13895,7 +14474,7 @@
       <c r="P13" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="36" t="s">
+      <c r="Q13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="R13" t="s">
@@ -13927,19 +14506,19 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="56" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
@@ -13992,10 +14571,10 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
@@ -14004,7 +14583,7 @@
       <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="56" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
@@ -14054,7 +14633,7 @@
       <c r="C16" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="56" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
@@ -14063,7 +14642,7 @@
       <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="56" t="s">
         <v>26</v>
       </c>
       <c r="H16" t="s">
@@ -14075,10 +14654,10 @@
       <c r="J16" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="87"/>
+      <c r="L16" s="107"/>
       <c r="M16" t="s">
         <v>104</v>
       </c>
@@ -14120,7 +14699,7 @@
       <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="56" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
@@ -14141,10 +14720,10 @@
       <c r="J17" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="87"/>
+      <c r="L17" s="107"/>
       <c r="M17" t="s">
         <v>104</v>
       </c>
@@ -14186,7 +14765,7 @@
       <c r="C18" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="56" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
@@ -14207,10 +14786,10 @@
       <c r="J18" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="87"/>
+      <c r="L18" s="107"/>
       <c r="M18" t="s">
         <v>104</v>
       </c>
@@ -14252,31 +14831,31 @@
       <c r="C19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="56" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="56" t="s">
         <v>21</v>
       </c>
       <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="87"/>
+      <c r="L19" s="107"/>
       <c r="M19" t="s">
         <v>104</v>
       </c>
@@ -14318,16 +14897,16 @@
       <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="56" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="56" t="s">
         <v>26</v>
       </c>
       <c r="H20" t="s">
@@ -14339,10 +14918,10 @@
       <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="87"/>
+      <c r="L20" s="107"/>
       <c r="M20" t="s">
         <v>104</v>
       </c>
@@ -14399,7 +14978,7 @@
       <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="56" t="s">
         <v>21</v>
       </c>
       <c r="J21" t="s">
@@ -14517,13 +15096,13 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="56" t="s">
         <v>104</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="H23" t="s">
@@ -14535,10 +15114,10 @@
       <c r="J23" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="87"/>
+      <c r="L23" s="107"/>
       <c r="M23" t="s">
         <v>104</v>
       </c>
@@ -14583,13 +15162,13 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="56" t="s">
         <v>104</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="56" t="s">
         <v>26</v>
       </c>
       <c r="H24" t="s">
@@ -14601,10 +15180,10 @@
       <c r="J24" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="87"/>
+      <c r="L24" s="107"/>
       <c r="M24" t="s">
         <v>104</v>
       </c>
@@ -14649,13 +15228,13 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="56" t="s">
         <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="56" t="s">
         <v>26</v>
       </c>
       <c r="H25" t="s">
@@ -14667,10 +15246,10 @@
       <c r="J25" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="87"/>
+      <c r="L25" s="107"/>
       <c r="M25" t="s">
         <v>104</v>
       </c>
@@ -14689,7 +15268,7 @@
       <c r="R25" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="36" t="s">
+      <c r="S25" s="56" t="s">
         <v>104</v>
       </c>
       <c r="T25" t="s">
@@ -14715,28 +15294,28 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="56" t="s">
         <v>21</v>
       </c>
       <c r="J26" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="87"/>
+      <c r="L26" s="107"/>
       <c r="M26" t="s">
         <v>104</v>
       </c>
@@ -14781,7 +15360,7 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="56" t="s">
         <v>104</v>
       </c>
       <c r="F27" t="s">
@@ -14799,10 +15378,10 @@
       <c r="J27" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="87"/>
+      <c r="L27" s="107"/>
       <c r="M27" t="s">
         <v>104</v>
       </c>
@@ -14821,7 +15400,7 @@
       <c r="R27" t="s">
         <v>6</v>
       </c>
-      <c r="S27" s="36" t="s">
+      <c r="S27" s="56" t="s">
         <v>104</v>
       </c>
       <c r="T27" t="s">
@@ -14847,16 +15426,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="56" t="s">
         <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="56" t="s">
         <v>26</v>
       </c>
       <c r="I28" t="s">
@@ -14865,10 +15444,10 @@
       <c r="J28" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="87"/>
+      <c r="L28" s="107"/>
       <c r="M28" t="s">
         <v>104</v>
       </c>
@@ -14978,16 +15557,16 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="56" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
@@ -15046,16 +15625,16 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="56" t="s">
         <v>15</v>
       </c>
       <c r="I31" t="s">
@@ -15114,16 +15693,16 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="56" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
@@ -15182,16 +15761,16 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="56" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
@@ -15276,419 +15855,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="99" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="80"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="80"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="80"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="101"/>
+      <c r="G6" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="80"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="80"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="80"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="82" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="83" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="104" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="80"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="104" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="80"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="36"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="80"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="80"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="80"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="80"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="82" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="81" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" t="s">
@@ -15738,411 +16317,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="71"/>
+      <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="71"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="91"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="71"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="91"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="71"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="71"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="71"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75" t="s">
+      <c r="G7" s="95"/>
+      <c r="H7" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75" t="s">
+      <c r="I7" s="95"/>
+      <c r="J7" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="71"/>
+      <c r="K7" s="91"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="71"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="91"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="71"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="71"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="91"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="71"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="75" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75" t="s">
+      <c r="G10" s="95"/>
+      <c r="H10" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75" t="s">
+      <c r="I10" s="95"/>
+      <c r="J10" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="71"/>
+      <c r="K10" s="91"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="71"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="91"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="71"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="91"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="71"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="75" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75" t="s">
+      <c r="G13" s="95"/>
+      <c r="H13" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76" t="s">
+      <c r="I13" s="95"/>
+      <c r="J13" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="71"/>
+      <c r="K13" s="91"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="71"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="71"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="71"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="91"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="75" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="95"/>
+      <c r="H16" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75" t="s">
+      <c r="I16" s="95"/>
+      <c r="J16" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="71"/>
+      <c r="K16" s="91"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="71"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="71"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="71"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="75" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75" t="s">
+      <c r="G19" s="95"/>
+      <c r="H19" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76" t="s">
+      <c r="I19" s="95"/>
+      <c r="J19" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="71"/>
+      <c r="K19" s="91"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="71"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="91"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="71"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="71"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="71"/>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="91"/>
+      <c r="B22" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="75" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75" t="s">
+      <c r="E22" s="95"/>
+      <c r="F22" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75" t="s">
+      <c r="G22" s="95"/>
+      <c r="H22" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75" t="s">
+      <c r="I22" s="95"/>
+      <c r="J22" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K22" s="71"/>
+      <c r="K22" s="91"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="70" t="s">
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="H27" s="17"/>
+      <c r="H27" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16180,460 +16759,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="71"/>
+      <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="71"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="91"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="71"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="91"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="71"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="71"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="71"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75" t="s">
+      <c r="G7" s="95"/>
+      <c r="H7" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75" t="s">
+      <c r="I7" s="95"/>
+      <c r="J7" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="71"/>
+      <c r="K7" s="91"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="71"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="91"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="71"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="71"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="91"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="71"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="75" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75" t="s">
+      <c r="G10" s="95"/>
+      <c r="H10" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75" t="s">
+      <c r="I10" s="95"/>
+      <c r="J10" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="71"/>
+      <c r="K10" s="91"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="71"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="91"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="71"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="91"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="71"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="75" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75" t="s">
+      <c r="G13" s="95"/>
+      <c r="H13" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76" t="s">
+      <c r="I13" s="95"/>
+      <c r="J13" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="71"/>
+      <c r="K13" s="91"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="71"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="71"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="71"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="91"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="71"/>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="75" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="95"/>
+      <c r="H16" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76" t="s">
+      <c r="I16" s="95"/>
+      <c r="J16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="71"/>
+      <c r="K16" s="91"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="71"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="71"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="71"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="75" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75" t="s">
+      <c r="G19" s="95"/>
+      <c r="H19" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75" t="s">
+      <c r="I19" s="95"/>
+      <c r="J19" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="71"/>
+      <c r="K19" s="91"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="71"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="91"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="71"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="71"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="71"/>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="91"/>
+      <c r="B22" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="75" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75" t="s">
+      <c r="E22" s="95"/>
+      <c r="F22" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75" t="s">
+      <c r="G22" s="95"/>
+      <c r="H22" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76" t="s">
+      <c r="I22" s="95"/>
+      <c r="J22" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="71"/>
+      <c r="K22" s="91"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="71"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="71"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="91"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="71"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="71"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="91"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="71"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="75" t="s">
+      <c r="C25" s="91"/>
+      <c r="D25" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75" t="s">
+      <c r="E25" s="95"/>
+      <c r="F25" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75" t="s">
+      <c r="G25" s="95"/>
+      <c r="H25" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75" t="s">
+      <c r="I25" s="95"/>
+      <c r="J25" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K25" s="71"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="H30" s="17"/>
+      <c r="H30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16663,206 +17242,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="7.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" style="61"/>
-    <col min="5" max="5" width="10.8333333333333" style="61"/>
-    <col min="7" max="7" width="10.8333333333333" style="61"/>
+    <col min="2" max="2" width="7.5" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.8333333333333" style="81"/>
+    <col min="5" max="5" width="10.8333333333333" style="81"/>
+    <col min="7" max="7" width="10.8333333333333" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="52"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="52"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="52"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="65" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="52"/>
-      <c r="B4" s="62"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="67" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="82"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="52"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="63" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="52"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="52"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="63" t="s">
+      <c r="D7" s="72"/>
+      <c r="E7" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="63" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="52"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="52"/>
-      <c r="B9" s="68" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="63" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="52"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="52"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="63" t="s">
+      <c r="F11" s="72"/>
+      <c r="G11" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="70" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16891,137 +17470,137 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="J4" s="52"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="52"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="52"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="52"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="52"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="52"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="52"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="J8" s="52"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" s="52" customFormat="1"/>
-    <row r="11" s="52" customFormat="1"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" s="72" customFormat="1"/>
+    <row r="11" s="72" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/images/20220127/运维领域模型.xlsx
+++ b/images/20220127/运维领域模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="15540" tabRatio="917" activeTab="15"/>
+    <workbookView windowWidth="29400" windowHeight="15640" tabRatio="917" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="运维阶段" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="交付场景-平台" sheetId="10" r:id="rId8"/>
     <sheet name="CICD" sheetId="12" r:id="rId9"/>
     <sheet name="对账场景" sheetId="7" r:id="rId10"/>
-    <sheet name="运营建模" sheetId="9" r:id="rId11"/>
-    <sheet name="运营实施" sheetId="13" r:id="rId12"/>
+    <sheet name="运营模型" sheetId="13" r:id="rId11"/>
+    <sheet name="运营对象" sheetId="9" r:id="rId12"/>
     <sheet name="服务治理" sheetId="15" r:id="rId13"/>
     <sheet name="平台工程" sheetId="14" r:id="rId14"/>
     <sheet name="云管分级" sheetId="16" r:id="rId15"/>
@@ -1046,280 +1046,6 @@
     <t>语义聚合主要是提炼数字语义，如拍搜超预算100万是什么原因、机器环比增加200万是什么原因、定价误差300万是什么原因</t>
   </si>
   <si>
-    <t>资源模型</t>
-  </si>
-  <si>
-    <t>组件模型</t>
-  </si>
-  <si>
-    <t>服务模型</t>
-  </si>
-  <si>
-    <t>运行</t>
-  </si>
-  <si>
-    <t>产品(资源/服务)</t>
-  </si>
-  <si>
-    <t>隔离方式</t>
-  </si>
-  <si>
-    <t>集群</t>
-  </si>
-  <si>
-    <t>实例</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>调研</t>
-  </si>
-  <si>
-    <t>采购</t>
-  </si>
-  <si>
-    <t>E-R</t>
-  </si>
-  <si>
-    <t>归属</t>
-  </si>
-  <si>
-    <t>变更</t>
-  </si>
-  <si>
-    <t>监控</t>
-  </si>
-  <si>
-    <t>预案</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>ZNS</t>
-  </si>
-  <si>
-    <t>ZNS SVC</t>
-  </si>
-  <si>
-    <t>实例: opbuffer、未关联实例挂集群(完整性)
-集群: 未关联集群挂预单(完整性)</t>
-  </si>
-  <si>
-    <t>opoffline、空闲DCC、无主开发机</t>
-  </si>
-  <si>
-    <t>共享</t>
-  </si>
-  <si>
-    <t>EMR集群</t>
-  </si>
-  <si>
-    <t>镜像</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>流控子网</t>
-  </si>
-  <si>
-    <t>服务子网</t>
-  </si>
-  <si>
-    <t>服务安全组</t>
-  </si>
-  <si>
-    <t>独占</t>
-  </si>
-  <si>
-    <t>交换机</t>
-  </si>
-  <si>
-    <t>EIP: 未关联EIP挂预单(完整性)</t>
-  </si>
-  <si>
-    <t>LB ID</t>
-  </si>
-  <si>
-    <t>K8S SVC</t>
-  </si>
-  <si>
-    <t>单价: 计费模式核对(正确性)</t>
-  </si>
-  <si>
-    <t>一级域名</t>
-  </si>
-  <si>
-    <t>域名: 未关联域名挂预单(完整性)</t>
-  </si>
-  <si>
-    <t>边界: 非法IP解析下线</t>
-  </si>
-  <si>
-    <t>二级域名</t>
-  </si>
-  <si>
-    <t>桶</t>
-  </si>
-  <si>
-    <t>文件</t>
-  </si>
-  <si>
-    <t>桶域名</t>
-  </si>
-  <si>
-    <t>桶: 未关联桶挂预单(完整性)</t>
-  </si>
-  <si>
-    <t>IP: 未关联IP挂预单(完整性)</t>
-  </si>
-  <si>
-    <t>IP/ID</t>
-  </si>
-  <si>
-    <t>规格: 规格核对(正确性)</t>
-  </si>
-  <si>
-    <t>CDN</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>CDN域名</t>
-  </si>
-  <si>
-    <t>云服务</t>
-  </si>
-  <si>
-    <t>Holo</t>
-  </si>
-  <si>
-    <t>Holo实例</t>
-  </si>
-  <si>
-    <t>Holo实例域名</t>
-  </si>
-  <si>
-    <t>Kafka</t>
-  </si>
-  <si>
-    <t>Kafka实例</t>
-  </si>
-  <si>
-    <t>Kafka实例域名</t>
-  </si>
-  <si>
-    <t>验证码</t>
-  </si>
-  <si>
-    <t>APP账号</t>
-  </si>
-  <si>
-    <t>服务域名+APP账号</t>
-  </si>
-  <si>
-    <t>OCR服务</t>
-  </si>
-  <si>
-    <t>业务</t>
-  </si>
-  <si>
-    <t>计费</t>
-  </si>
-  <si>
-    <t>组件</t>
-  </si>
-  <si>
-    <t>RocketMQ</t>
-  </si>
-  <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Proxy SVC</t>
-  </si>
-  <si>
-    <t>Kafka 域名</t>
-  </si>
-  <si>
-    <t>网关</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>CoreDNS</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>数据库集群</t>
-  </si>
-  <si>
-    <t>缓存</t>
-  </si>
-  <si>
-    <t>缓存集群</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>ZNS: 空白ZNS下线</t>
-  </si>
-  <si>
-    <t>资产</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Repo</t>
-  </si>
-  <si>
-    <t>归属: 跨预单Git项目(正确性)</t>
-  </si>
-  <si>
-    <t>权限: 跨预单部署Git代码</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>成本(横向)</t>
-  </si>
-  <si>
-    <t>单价: 天级单价缺失(完整性)
-单价: 月级账单核对(正确性)</t>
-  </si>
-  <si>
-    <t>标签: 集群归属缺失(完整性)</t>
-  </si>
-  <si>
-    <t>预算: 天级预算对比趋势缺失(完整性)
-分摊: 天级分摊趋势缺失(完整性)
-对账: Q级代金券核对(正确性)</t>
-  </si>
-  <si>
-    <t>运营(横向)</t>
-  </si>
-  <si>
-    <t>审计: 周级新增度量&amp;核对</t>
-  </si>
-  <si>
-    <t>治理: 空闲资源默认下线</t>
-  </si>
-  <si>
     <t>目标</t>
   </si>
   <si>
@@ -1460,6 +1186,280 @@
   </si>
   <si>
     <t>审阅确保执行到位</t>
+  </si>
+  <si>
+    <t>资源模型</t>
+  </si>
+  <si>
+    <t>组件模型</t>
+  </si>
+  <si>
+    <t>服务模型</t>
+  </si>
+  <si>
+    <t>运行</t>
+  </si>
+  <si>
+    <t>产品(资源/服务)</t>
+  </si>
+  <si>
+    <t>隔离方式</t>
+  </si>
+  <si>
+    <t>集群</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>调研</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>E-R</t>
+  </si>
+  <si>
+    <t>归属</t>
+  </si>
+  <si>
+    <t>变更</t>
+  </si>
+  <si>
+    <t>监控</t>
+  </si>
+  <si>
+    <t>预案</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>ZNS</t>
+  </si>
+  <si>
+    <t>ZNS SVC</t>
+  </si>
+  <si>
+    <t>实例: opbuffer、未关联实例挂集群(完整性)
+集群: 未关联集群挂预单(完整性)</t>
+  </si>
+  <si>
+    <t>opoffline、空闲DCC、无主开发机</t>
+  </si>
+  <si>
+    <t>共享</t>
+  </si>
+  <si>
+    <t>EMR集群</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>流控子网</t>
+  </si>
+  <si>
+    <t>服务子网</t>
+  </si>
+  <si>
+    <t>服务安全组</t>
+  </si>
+  <si>
+    <t>独占</t>
+  </si>
+  <si>
+    <t>交换机</t>
+  </si>
+  <si>
+    <t>EIP: 未关联EIP挂预单(完整性)</t>
+  </si>
+  <si>
+    <t>LB ID</t>
+  </si>
+  <si>
+    <t>K8S SVC</t>
+  </si>
+  <si>
+    <t>单价: 计费模式核对(正确性)</t>
+  </si>
+  <si>
+    <t>一级域名</t>
+  </si>
+  <si>
+    <t>域名: 未关联域名挂预单(完整性)</t>
+  </si>
+  <si>
+    <t>边界: 非法IP解析下线</t>
+  </si>
+  <si>
+    <t>二级域名</t>
+  </si>
+  <si>
+    <t>桶</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>桶域名</t>
+  </si>
+  <si>
+    <t>桶: 未关联桶挂预单(完整性)</t>
+  </si>
+  <si>
+    <t>IP: 未关联IP挂预单(完整性)</t>
+  </si>
+  <si>
+    <t>IP/ID</t>
+  </si>
+  <si>
+    <t>规格: 规格核对(正确性)</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>CDN域名</t>
+  </si>
+  <si>
+    <t>云服务</t>
+  </si>
+  <si>
+    <t>Holo</t>
+  </si>
+  <si>
+    <t>Holo实例</t>
+  </si>
+  <si>
+    <t>Holo实例域名</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>Kafka实例</t>
+  </si>
+  <si>
+    <t>Kafka实例域名</t>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>APP账号</t>
+  </si>
+  <si>
+    <t>服务域名+APP账号</t>
+  </si>
+  <si>
+    <t>OCR服务</t>
+  </si>
+  <si>
+    <t>业务</t>
+  </si>
+  <si>
+    <t>计费</t>
+  </si>
+  <si>
+    <t>组件</t>
+  </si>
+  <si>
+    <t>RocketMQ</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Proxy SVC</t>
+  </si>
+  <si>
+    <t>Kafka 域名</t>
+  </si>
+  <si>
+    <t>网关</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>CoreDNS</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>数据库集群</t>
+  </si>
+  <si>
+    <t>缓存</t>
+  </si>
+  <si>
+    <t>缓存集群</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>ZNS: 空白ZNS下线</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Repo</t>
+  </si>
+  <si>
+    <t>归属: 跨预单Git项目(正确性)</t>
+  </si>
+  <si>
+    <t>权限: 跨预单部署Git代码</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>成本(横向)</t>
+  </si>
+  <si>
+    <t>单价: 天级单价缺失(完整性)
+单价: 月级账单核对(正确性)</t>
+  </si>
+  <si>
+    <t>标签: 集群归属缺失(完整性)</t>
+  </si>
+  <si>
+    <t>预算: 天级预算对比趋势缺失(完整性)
+分摊: 天级分摊趋势缺失(完整性)
+对账: Q级代金券核对(正确性)</t>
+  </si>
+  <si>
+    <t>运营(横向)</t>
+  </si>
+  <si>
+    <t>审计: 周级新增度量&amp;核对</t>
+  </si>
+  <si>
+    <t>治理: 空闲资源默认下线</t>
   </si>
   <si>
     <t>维度</t>
@@ -1887,7 +1887,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="DengXian"/>
@@ -1897,21 +1896,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.499984740745262"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1935,6 +1920,21 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2219,12 +2219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -2234,6 +2228,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
@@ -2988,55 +2988,55 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3136,10 +3136,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3152,9 +3152,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9716,138 +9716,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10096500" cy="1506220"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12700" y="12700"/>
-          <a:ext cx="10096500" cy="1506220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>运营工作的目标是，维持运维对象的同构。分解一下，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>① 通过度量、治理，消除非标现状，此为初级阶段</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>② 从非标现状中抽象共性，推动交付平台、服务框架的完善，杜绝增量，此为高级阶段</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>其它，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>资源的共享或独占，是相对于上游使用方而言的；如果没有上游，就无所谓共享或独占</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> 集群本质是管理模型</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>530225</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -10113,6 +9981,138 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>、三权分立、监督制衡，不能绝对信任某一角色</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10096500" cy="1506220"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="12700"/>
+          <a:ext cx="10096500" cy="1506220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>运营工作的目标是，维持运维对象的同构。分解一下，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>① 通过度量、治理，消除非标现状，此为初级阶段</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>② 从非标现状中抽象共性，推动交付平台、服务框架的完善，杜绝增量，此为高级阶段</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其它，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>资源的共享或独占，是相对于上游使用方而言的；如果没有上游，就无所谓共享或独占</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 集群本质是管理模型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -10750,13 +10750,13 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="49" t="s">
         <v>35</v>
       </c>
     </row>
@@ -11247,9 +11247,178 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A4:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="5.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9">
+      <c r="C4" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:9">
+      <c r="C8" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" ht="18" spans="1:9">
+      <c r="C14" s="56"/>
+      <c r="D14" s="55"/>
+      <c r="H14" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="56"/>
+      <c r="D15" s="55"/>
+    </row>
+    <row r="16" ht="18" spans="1:9">
+      <c r="C16" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="55"/>
+      <c r="H20" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A8:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -11275,112 +11444,112 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:23">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48" t="s">
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="50" t="s">
+      <c r="P8" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="K9" s="51" t="s">
+      <c r="B9" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K9" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="N9" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="O9" s="52" t="s">
+      <c r="L9" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="O9" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q9" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="R9" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="S9" s="51" t="s">
+      <c r="P9" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="S9" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="T9" s="51" t="s">
+      <c r="T9" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="U9" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="V9" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="W9" s="51" t="s">
+      <c r="U9" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="W9" s="43" t="s">
         <v>99</v>
       </c>
     </row>
@@ -11388,38 +11557,38 @@
       <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54" t="s">
-        <v>314</v>
+        <v>347</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -11429,20 +11598,20 @@
       <c r="B11" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -11452,65 +11621,65 @@
         <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G12" t="s">
-        <v>310</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
+        <v>345</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
+        <v>353</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
@@ -11520,56 +11689,56 @@
         <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
-      </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
+        <v>353</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="45" t="s">
         <v>115</v>
       </c>
       <c r="E15" t="s">
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="G15" t="s">
-        <v>320</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
+        <v>355</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
@@ -11578,51 +11747,51 @@
       <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="45" t="s">
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>321</v>
-      </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
+        <v>356</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
@@ -11632,59 +11801,59 @@
         <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="E18" t="s">
-        <v>318</v>
-      </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
+        <v>353</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="48" t="s">
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="F19" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="G19" t="s">
-        <v>319</v>
-      </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
+        <v>354</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
@@ -11694,100 +11863,100 @@
         <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="45" t="s">
         <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E21" t="s">
         <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G21" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="45" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="F22" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="H22" t="s">
-        <v>326</v>
-      </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
+        <v>361</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
@@ -11797,26 +11966,26 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
+        <v>350</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
@@ -11826,89 +11995,89 @@
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
+        <v>350</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="48" t="s">
         <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
+        <v>357</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="45" t="s">
         <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>328</v>
+        <v>350</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>363</v>
       </c>
       <c r="F26" t="s">
-        <v>331</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
+        <v>366</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
@@ -11918,65 +12087,65 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
+        <v>357</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="45" t="s">
         <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57" t="s">
-        <v>332</v>
+        <v>357</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50" t="s">
+        <v>367</v>
       </c>
       <c r="F28" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="G28" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
-      </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
+        <v>369</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
@@ -11986,33 +12155,33 @@
         <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="F29" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G29" t="s">
-        <v>333</v>
-      </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
+        <v>368</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
@@ -12022,75 +12191,75 @@
         <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>322</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>318</v>
+        <v>357</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>353</v>
       </c>
       <c r="F30" t="s">
-        <v>311</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
+        <v>346</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>339</v>
+      <c r="B31" s="45" t="s">
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57" t="s">
-        <v>331</v>
+        <v>357</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50" t="s">
+        <v>366</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G31" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="H31" t="s">
-        <v>341</v>
-      </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
+        <v>376</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
@@ -12099,526 +12268,526 @@
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="F33" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="H33" t="s">
-        <v>345</v>
-      </c>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
+        <v>380</v>
+      </c>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="E34" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="H34" t="s">
-        <v>348</v>
-      </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
+        <v>383</v>
+      </c>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="F35" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="H35" t="s">
-        <v>351</v>
-      </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
+        <v>386</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
+        <v>387</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s">
         <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="D38" t="s">
         <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
-      </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
+        <v>388</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
-      </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
+        <v>389</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>355</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>356</v>
+        <v>390</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>391</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="E40" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="H40" t="s">
-        <v>359</v>
-      </c>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
+        <v>394</v>
+      </c>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>355</v>
-      </c>
-      <c r="B41" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" t="s">
+        <v>334</v>
+      </c>
+      <c r="E41" t="s">
+        <v>392</v>
+      </c>
+      <c r="F41" t="s">
         <v>346</v>
       </c>
-      <c r="C41" t="s">
-        <v>322</v>
-      </c>
-      <c r="D41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" t="s">
-        <v>357</v>
-      </c>
-      <c r="F41" t="s">
-        <v>311</v>
-      </c>
       <c r="G41" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="H41" t="s">
-        <v>360</v>
-      </c>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
+        <v>395</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>361</v>
+        <v>390</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>396</v>
       </c>
       <c r="C42" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D42" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="H42" t="s">
-        <v>331</v>
-      </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
+        <v>366</v>
+      </c>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
+        <v>345</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>355</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>364</v>
+        <v>390</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>399</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="G44" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="H44" t="s">
-        <v>359</v>
-      </c>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
+        <v>394</v>
+      </c>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>355</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>366</v>
+        <v>390</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>401</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="H45" t="s">
-        <v>359</v>
-      </c>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
+        <v>394</v>
+      </c>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="45" t="s">
         <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="F46" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="H46" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
-      </c>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54" t="s">
-        <v>369</v>
+        <v>403</v>
+      </c>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s">
         <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="E47" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="N47" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="S47" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" ht="71" spans="1:23">
       <c r="A48" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s">
-        <v>376</v>
-      </c>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55" t="s">
-        <v>377</v>
-      </c>
-      <c r="N48" s="55" t="s">
-        <v>378</v>
-      </c>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="55" t="s">
-        <v>379</v>
-      </c>
-      <c r="W48" s="54"/>
+        <v>411</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="N48" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="W48" s="46"/>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s">
-        <v>380</v>
-      </c>
-      <c r="O49" s="54" t="s">
-        <v>381</v>
+        <v>415</v>
+      </c>
+      <c r="O49" s="46" t="s">
+        <v>416</v>
       </c>
       <c r="W49" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -12634,175 +12803,6 @@
   <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A4:I20"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
-  <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="5.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:9">
-      <c r="C4" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="C6" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" ht="18" spans="1:9">
-      <c r="C8" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G9" t="s">
-        <v>397</v>
-      </c>
-      <c r="H9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="35" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="E11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F11" t="s">
-        <v>404</v>
-      </c>
-      <c r="G11" t="s">
-        <v>405</v>
-      </c>
-      <c r="H11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" ht="18" spans="1:9">
-      <c r="C14" s="41"/>
-      <c r="D14" s="40"/>
-      <c r="H14" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-    </row>
-    <row r="16" ht="18" spans="1:9">
-      <c r="C16" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8">
-      <c r="D20" s="40"/>
-      <c r="H20" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13016,7 +13016,7 @@
         <v>448</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -13165,7 +13165,7 @@
         <v>476</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
         <v>431</v>
@@ -13316,7 +13316,7 @@
   <sheetPr/>
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -13342,13 +13342,13 @@
         <v>503</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>255</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>504</v>
@@ -13368,7 +13368,7 @@
         <v>507</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>508</v>
@@ -13404,14 +13404,14 @@
         <v>512</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>513</v>
@@ -13757,7 +13757,7 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="12.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="5" style="37" customWidth="1"/>
+    <col min="12" max="12" width="5" style="53" customWidth="1"/>
     <col min="13" max="15" width="9.5" customWidth="1"/>
     <col min="16" max="17" width="12.3333333333333" customWidth="1"/>
     <col min="18" max="18" width="11.8333333333333" customWidth="1"/>
@@ -13768,136 +13768,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="M1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="48" t="s">
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
       <c r="U3" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="42" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="106"/>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       <c r="J12" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="107"/>
@@ -14450,7 +14450,7 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="49" t="s">
         <v>15</v>
       </c>
       <c r="I13" t="s">
@@ -14474,7 +14474,7 @@
       <c r="P13" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="56" t="s">
+      <c r="Q13" s="49" t="s">
         <v>6</v>
       </c>
       <c r="R13" t="s">
@@ -14506,19 +14506,19 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="49" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
@@ -14571,10 +14571,10 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
@@ -14583,7 +14583,7 @@
       <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="49" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
@@ -14633,7 +14633,7 @@
       <c r="C16" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
@@ -14642,7 +14642,7 @@
       <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H16" t="s">
@@ -14654,7 +14654,7 @@
       <c r="J16" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="49" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="107"/>
@@ -14699,7 +14699,7 @@
       <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
@@ -14720,7 +14720,7 @@
       <c r="J17" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="49" t="s">
         <v>26</v>
       </c>
       <c r="L17" s="107"/>
@@ -14765,7 +14765,7 @@
       <c r="C18" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
@@ -14786,7 +14786,7 @@
       <c r="J18" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="107"/>
@@ -14831,28 +14831,28 @@
       <c r="C19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="49" t="s">
         <v>21</v>
       </c>
       <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="49" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="107"/>
@@ -14897,16 +14897,16 @@
       <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H20" t="s">
@@ -14918,7 +14918,7 @@
       <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="49" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="107"/>
@@ -14978,7 +14978,7 @@
       <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="49" t="s">
         <v>21</v>
       </c>
       <c r="J21" t="s">
@@ -15096,13 +15096,13 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="49" t="s">
         <v>104</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H23" t="s">
@@ -15114,7 +15114,7 @@
       <c r="J23" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="49" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="107"/>
@@ -15162,13 +15162,13 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="49" t="s">
         <v>104</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H24" t="s">
@@ -15180,7 +15180,7 @@
       <c r="J24" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="56" t="s">
+      <c r="K24" s="49" t="s">
         <v>15</v>
       </c>
       <c r="L24" s="107"/>
@@ -15228,13 +15228,13 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="49" t="s">
         <v>104</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H25" t="s">
@@ -15246,7 +15246,7 @@
       <c r="J25" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="49" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="107"/>
@@ -15268,7 +15268,7 @@
       <c r="R25" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="56" t="s">
+      <c r="S25" s="49" t="s">
         <v>104</v>
       </c>
       <c r="T25" t="s">
@@ -15294,25 +15294,25 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="49" t="s">
         <v>21</v>
       </c>
       <c r="J26" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="49" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="107"/>
@@ -15360,7 +15360,7 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="49" t="s">
         <v>104</v>
       </c>
       <c r="F27" t="s">
@@ -15378,7 +15378,7 @@
       <c r="J27" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="49" t="s">
         <v>15</v>
       </c>
       <c r="L27" s="107"/>
@@ -15400,7 +15400,7 @@
       <c r="R27" t="s">
         <v>6</v>
       </c>
-      <c r="S27" s="56" t="s">
+      <c r="S27" s="49" t="s">
         <v>104</v>
       </c>
       <c r="T27" t="s">
@@ -15426,16 +15426,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="49" t="s">
         <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="49" t="s">
         <v>26</v>
       </c>
       <c r="I28" t="s">
@@ -15444,7 +15444,7 @@
       <c r="J28" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="49" t="s">
         <v>24</v>
       </c>
       <c r="L28" s="107"/>
@@ -15557,16 +15557,16 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="49" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
@@ -15625,16 +15625,16 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="56" t="s">
+      <c r="H31" s="49" t="s">
         <v>15</v>
       </c>
       <c r="I31" t="s">
@@ -15693,16 +15693,16 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="H32" s="49" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
@@ -15761,16 +15761,16 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="49" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
@@ -15887,165 +15887,165 @@
       <c r="A2" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="100"/>
       <c r="B3" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="49" t="s">
         <v>158</v>
       </c>
       <c r="F3" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="100"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="49" t="s">
         <v>162</v>
       </c>
       <c r="F4" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="100"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="100"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="49" t="s">
         <v>169</v>
       </c>
       <c r="F6" s="101"/>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="100"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="100"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="100"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="102" t="s">
         <v>176</v>
       </c>
       <c r="F9" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="49" t="s">
         <v>179</v>
       </c>
       <c r="C10" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="103" t="s">
         <v>181</v>
       </c>
       <c r="F10" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="49" t="s">
         <v>184</v>
       </c>
       <c r="I10" s="104" t="s">
@@ -16054,20 +16054,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="100"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="50" t="s">
         <v>190</v>
       </c>
       <c r="I11" s="104" t="s">
@@ -16076,198 +16076,198 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="100"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="100"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="100"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="100"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="100"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="100"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="100"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="100"/>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="100"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="100"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" t="s">
@@ -16721,7 +16721,7 @@
       <c r="K25" s="91"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="H27" s="37"/>
+      <c r="H27" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -17212,7 +17212,7 @@
       <c r="K28" s="91"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="H30" s="37"/>
+      <c r="H30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17242,7 +17242,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="7.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="56" customWidth="1"/>
     <col min="3" max="3" width="10.8333333333333" style="81"/>
     <col min="5" max="5" width="10.8333333333333" style="81"/>
     <col min="7" max="7" width="10.8333333333333" style="81"/>
